--- a/QuantLibXL/Data2/XLS/HKD/HKD_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD/HKD_Market.xlsx
@@ -465,9 +465,6 @@
     <t>Actual/365 (Fixed)</t>
   </si>
   <si>
-    <t>Following</t>
-  </si>
-  <si>
     <t>HongKong::HKEx</t>
   </si>
   <si>
@@ -706,6 +703,9 @@
   </si>
   <si>
     <t>Access Denied: User req to PE(122)</t>
+  </si>
+  <si>
+    <t>Modified Following</t>
   </si>
 </sst>
 </file>
@@ -2066,68 +2066,68 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="pldatasource.rhistoryrtdserver">
-      <tp t="s">
-        <v>Updated at 18:15:25</v>
-        <stp/>
-        <stp>{8910C145-C658-4B96-96AB-3AA8C96C64C3}_x0000_</stp>
-        <tr r="E2" s="41"/>
-      </tp>
-    </main>
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 18:15:25</v>
+        <v>Paused at 11:12:44</v>
         <stp/>
-        <stp>{201909EC-5E98-4ADC-A133-73B1A90B47EA}</stp>
+        <stp>{722DEF7D-372D-4107-947A-25498D0D70AA}</stp>
+        <tr r="S4" s="5"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 11:12:44</v>
+        <stp/>
+        <stp>{C1300B64-FF7D-4B80-BFAD-15BDDCE3657E}</stp>
+        <tr r="L4" s="16"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 11:12:44</v>
+        <stp/>
+        <stp>{762679A3-71F7-417C-AFCD-A7BCFF0797AB}</stp>
+        <tr r="S4" s="43"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 11:12:44</v>
+        <stp/>
+        <stp>{245E250E-6938-48F4-8AC0-E5B80683F6D7}</stp>
+        <tr r="M4" s="10"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 11:12:44</v>
+        <stp/>
+        <stp>{4204A290-C821-41B7-9A22-2774DB238F6F}</stp>
+        <tr r="L4" s="17"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 11:12:44</v>
+        <stp/>
+        <stp>{21D18F73-7638-4DB6-9799-D37E2DF93040}</stp>
         <tr r="L4" s="19"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:15:25</v>
+        <v>Paused at 11:12:44</v>
         <stp/>
-        <stp>{6110A8AA-CEC8-4FF9-9BC2-87473BB2CBCB}</stp>
-        <tr r="S4" s="5"/>
+        <stp>{83F41C27-75D9-46DC-9EE1-97F346513EAC}</stp>
+        <tr r="I3" s="9"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:15:26</v>
+        <v>Paused at 11:12:45</v>
         <stp/>
-        <stp>{51BF74B7-FFFA-4421-9A7F-C8B4C1781AE6}</stp>
+        <stp>{6437F67D-2EDA-43DA-B15F-68CF29B5EBF5}</stp>
         <tr r="O3" s="12"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:15:25</v>
+        <v>Paused at 11:12:44</v>
         <stp/>
-        <stp>{E3183E5D-45A1-40F7-966F-DF40B47B84E7}</stp>
-        <tr r="L4" s="16"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:15:25</v>
-        <stp/>
-        <stp>{9D1B7B3A-EE2A-484C-BAA7-E55F30DC75B6}</stp>
-        <tr r="S4" s="43"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:15:26</v>
-        <stp/>
-        <stp>{8E9928FB-BB40-4F64-8A99-B5BE816FAD3D}</stp>
-        <tr r="I3" s="9"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:15:25</v>
-        <stp/>
-        <stp>{944492D9-8972-478C-A1F9-B77331833D08}</stp>
-        <tr r="L4" s="17"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:15:26</v>
-        <stp/>
-        <stp>{B70322FB-F9E7-4F1F-9681-63A9F9C63915}</stp>
+        <stp>{A5B83699-E1DE-4463-8FAF-75FDE9F03EF5}</stp>
         <tr r="T5" s="36"/>
       </tp>
+    </main>
+    <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 18:15:25</v>
+        <v>Paused at 11:12:45</v>
         <stp/>
-        <stp>{8F8BA7D3-0FAF-42D5-9B94-6931A63940EF}</stp>
-        <tr r="M4" s="10"/>
+        <stp>{BFC783C0-6BF0-4B2B-B15A-AC0E4B87651F}_x0000_</stp>
+        <tr r="E2" s="41"/>
       </tp>
     </main>
   </volType>
@@ -2440,7 +2440,7 @@
     <row r="1" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="235" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - May  5 2015 15:27:06</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Jun 25 2015 08:49:52</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2463,7 +2463,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="237">
-        <v>42135.760694444441</v>
+        <v>42180.467187499999</v>
       </c>
       <c r="E4" s="238"/>
     </row>
@@ -2476,7 +2476,7 @@
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="65"/>
       <c r="C6" s="231" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D6" s="239">
         <v>42135.760763888888</v>
@@ -2486,7 +2486,7 @@
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="65"/>
       <c r="C7" s="231" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="232" t="b">
         <v>1</v>
@@ -2611,31 +2611,31 @@
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="65"/>
       <c r="C21" s="244" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="245" t="s">
         <v>163</v>
-      </c>
-      <c r="D21" s="245" t="s">
-        <v>164</v>
       </c>
       <c r="E21" s="38"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="65"/>
       <c r="C22" s="246" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D22" s="247">
         <f>_xll.ohTrigger(ISERROR(OIS!V3),ISERROR(Deposits!O2),ISERROR(FRA!W3),ISERROR(Futures3M!Z2),ISERROR(Swaps1M!V3),ISERROR(Swap3M!V3),ISERROR(BasisSwap1M3M!AB3),ISERROR(#REF!),ISERROR('Hibor Time Series'!J5:L13))</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E22" s="38"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="65"/>
       <c r="C23" s="248" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="249" t="s">
         <v>166</v>
-      </c>
-      <c r="D23" s="249" t="s">
-        <v>167</v>
       </c>
       <c r="E23" s="38"/>
     </row>
@@ -2648,17 +2648,17 @@
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="65"/>
       <c r="C25" s="57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" s="250" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" s="38"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="65"/>
       <c r="C26" s="251" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" s="29" t="str">
         <f>""</f>
@@ -2669,80 +2669,80 @@
     <row r="27" spans="2:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="65"/>
       <c r="C27" s="251" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="29" t="s">
         <v>146</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>147</v>
       </c>
       <c r="E27" s="38"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="65"/>
       <c r="C28" s="251" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="65"/>
       <c r="C29" s="251" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E29" s="38"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="65"/>
       <c r="C30" s="251" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>150</v>
       </c>
       <c r="E30" s="38"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="65"/>
       <c r="C31" s="251" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>151</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>152</v>
       </c>
       <c r="E31" s="38"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="65"/>
       <c r="C32" s="251" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="29" t="s">
         <v>200</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>201</v>
       </c>
       <c r="E32" s="38"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="65"/>
       <c r="C33" s="251" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="65"/>
       <c r="C34" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="252" t="s">
         <v>154</v>
-      </c>
-      <c r="D34" s="252" t="s">
-        <v>155</v>
       </c>
       <c r="E34" s="38"/>
     </row>
@@ -2816,7 +2816,7 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N1" s="147"/>
       <c r="O1" s="113"/>
@@ -2847,7 +2847,7 @@
       <c r="Q2" s="88"/>
       <c r="R2" s="88"/>
       <c r="S2" s="110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T2" s="88"/>
       <c r="U2" s="88"/>
@@ -2856,7 +2856,7 @@
       <c r="X2" s="88"/>
       <c r="Y2" s="88"/>
       <c r="Z2" s="199" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA2" s="110" t="s">
         <v>2</v>
@@ -2894,7 +2894,7 @@
       <c r="AA3" s="146"/>
       <c r="AB3" s="107">
         <f>_xll.ohTrigger(AB5:AB43)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="84"/>
       <c r="AD3" s="116"/>
@@ -2923,7 +2923,7 @@
         <v>ohObjectSave - Invalid parent path : C:\projects\quantlib\QuantLibXL\Data2\XML\HKD\HKD_010_Sw3HI1HI.xml</v>
       </c>
       <c r="H4" s="220" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N4" s="93"/>
       <c r="O4" s="189"/>
@@ -2932,30 +2932,30 @@
       <c r="R4" s="143"/>
       <c r="S4" s="106" t="str">
         <f>_xll.RData(S5:S43,T4:U4,,ReutersRtMode,,T5)</f>
-        <v>Updated at 18:15:25</v>
+        <v>Paused at 11:12:44</v>
       </c>
       <c r="T4" s="142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U4" s="142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V4" s="102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W4" s="88"/>
       <c r="X4" s="104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y4" s="88"/>
       <c r="Z4" s="103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA4" s="188" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB4" s="187" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC4" s="84"/>
       <c r="AD4" s="116"/>
@@ -2970,10 +2970,10 @@
         <v>60</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E5" s="7" t="str">
         <f t="shared" ref="E5:E43" si="0">IF(ISBLANK(C5),"#",Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix)</f>
@@ -2993,10 +2993,10 @@
         <v>60</v>
       </c>
       <c r="P5" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R5" s="126" t="str">
         <f t="shared" ref="R5:R43" si="1">Currency&amp;$P5&amp;$Q5&amp;$O5</f>
@@ -3029,9 +3029,9 @@
         <f t="array" ref="AA5:AA43">QuoteLive</f>
         <v>15</v>
       </c>
-      <c r="AB5" s="94">
+      <c r="AB5" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z5,ROUND($AA5/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC5" s="84"/>
       <c r="AD5" s="116"/>
@@ -3052,10 +3052,10 @@
         <v>108</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E6" s="7" t="str">
         <f t="shared" ref="E6" si="3">IF(ISBLANK(C6),"#",Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix)</f>
@@ -3075,10 +3075,10 @@
         <v>108</v>
       </c>
       <c r="P6" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R6" s="126" t="str">
         <f t="shared" si="1"/>
@@ -3109,9 +3109,9 @@
       <c r="AA6" s="194">
         <v>15</v>
       </c>
-      <c r="AB6" s="94">
+      <c r="AB6" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z6,ROUND($AA6/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC6" s="84"/>
       <c r="AD6" s="116"/>
@@ -3132,10 +3132,10 @@
         <v>59</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3155,10 +3155,10 @@
         <v>59</v>
       </c>
       <c r="P7" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R7" s="126" t="str">
         <f t="shared" si="1"/>
@@ -3189,9 +3189,9 @@
       <c r="AA7" s="194">
         <v>15</v>
       </c>
-      <c r="AB7" s="94">
+      <c r="AB7" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z7,ROUND($AA7/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC7" s="84"/>
       <c r="AD7" s="116"/>
@@ -3212,10 +3212,10 @@
         <v>58</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3235,10 +3235,10 @@
         <v>58</v>
       </c>
       <c r="P8" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R8" s="126" t="str">
         <f t="shared" si="1"/>
@@ -3248,10 +3248,10 @@
         <v>HKD3HI1HI15M=PREA</v>
       </c>
       <c r="T8" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U8" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V8" s="196" t="e">
         <f t="shared" si="4"/>
@@ -3292,10 +3292,10 @@
         <v>57</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3315,10 +3315,10 @@
         <v>57</v>
       </c>
       <c r="P9" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q9" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R9" s="126" t="str">
         <f t="shared" si="1"/>
@@ -3349,9 +3349,9 @@
       <c r="AA9" s="194">
         <v>15</v>
       </c>
-      <c r="AB9" s="94">
+      <c r="AB9" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z9,ROUND($AA9/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC9" s="84"/>
       <c r="AD9" s="116"/>
@@ -3372,10 +3372,10 @@
         <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3404,10 +3404,10 @@
         <v>56</v>
       </c>
       <c r="P10" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R10" s="126" t="str">
         <f t="shared" si="1"/>
@@ -3417,10 +3417,10 @@
         <v>HKD3HI1HI21M=PREA</v>
       </c>
       <c r="T10" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U10" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V10" s="196" t="e">
         <f t="shared" si="4"/>
@@ -3455,10 +3455,10 @@
         <v>55</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3487,10 +3487,10 @@
         <v>55</v>
       </c>
       <c r="P11" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R11" s="126" t="str">
         <f t="shared" si="1"/>
@@ -3521,9 +3521,9 @@
       <c r="AA11" s="194">
         <v>15</v>
       </c>
-      <c r="AB11" s="94">
+      <c r="AB11" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z11,ROUND($AA11/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC11" s="84"/>
       <c r="AD11" s="116"/>
@@ -3538,10 +3538,10 @@
         <v>53</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3570,10 +3570,10 @@
         <v>53</v>
       </c>
       <c r="P12" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q12" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R12" s="126" t="str">
         <f t="shared" si="1"/>
@@ -3604,9 +3604,9 @@
       <c r="AA12" s="194">
         <v>13</v>
       </c>
-      <c r="AB12" s="94">
+      <c r="AB12" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z12,ROUND($AA12/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC12" s="84"/>
       <c r="AD12" s="116"/>
@@ -3621,10 +3621,10 @@
         <v>49</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3653,10 +3653,10 @@
         <v>49</v>
       </c>
       <c r="P13" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R13" s="126" t="str">
         <f t="shared" si="1"/>
@@ -3687,9 +3687,9 @@
       <c r="AA13" s="194">
         <v>12</v>
       </c>
-      <c r="AB13" s="94">
+      <c r="AB13" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z13,ROUND($AA13/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC13" s="84"/>
       <c r="AD13" s="116"/>
@@ -3704,10 +3704,10 @@
         <v>47</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3736,10 +3736,10 @@
         <v>47</v>
       </c>
       <c r="P14" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R14" s="126" t="str">
         <f t="shared" si="1"/>
@@ -3770,9 +3770,9 @@
       <c r="AA14" s="194">
         <v>12</v>
       </c>
-      <c r="AB14" s="94">
+      <c r="AB14" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z14,ROUND($AA14/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC14" s="84"/>
       <c r="AD14" s="116"/>
@@ -3787,10 +3787,10 @@
         <v>44</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3810,10 +3810,10 @@
         <v>44</v>
       </c>
       <c r="P15" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q15" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R15" s="126" t="str">
         <f t="shared" si="1"/>
@@ -3823,10 +3823,10 @@
         <v>HKD3HI1HI6Y=PREA</v>
       </c>
       <c r="T15" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U15" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V15" s="196" t="e">
         <f t="shared" si="4"/>
@@ -3861,10 +3861,10 @@
         <v>40</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3884,10 +3884,10 @@
         <v>40</v>
       </c>
       <c r="P16" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R16" s="126" t="str">
         <f t="shared" si="1"/>
@@ -3918,9 +3918,9 @@
       <c r="AA16" s="194">
         <v>8</v>
       </c>
-      <c r="AB16" s="94">
+      <c r="AB16" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z16,ROUND($AA16/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC16" s="84"/>
       <c r="AD16" s="116"/>
@@ -3935,10 +3935,10 @@
         <v>39</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3958,10 +3958,10 @@
         <v>39</v>
       </c>
       <c r="P17" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R17" s="126" t="str">
         <f t="shared" si="1"/>
@@ -3971,10 +3971,10 @@
         <v>HKD3HI1HI8Y=PREA</v>
       </c>
       <c r="T17" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U17" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V17" s="196" t="e">
         <f t="shared" si="4"/>
@@ -4009,10 +4009,10 @@
         <v>38</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4032,10 +4032,10 @@
         <v>38</v>
       </c>
       <c r="P18" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q18" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R18" s="126" t="str">
         <f t="shared" si="1"/>
@@ -4045,10 +4045,10 @@
         <v>HKD3HI1HI9Y=PREA</v>
       </c>
       <c r="T18" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U18" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V18" s="196" t="e">
         <f t="shared" si="4"/>
@@ -4083,10 +4083,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4106,10 +4106,10 @@
         <v>37</v>
       </c>
       <c r="P19" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R19" s="126" t="str">
         <f t="shared" si="1"/>
@@ -4140,9 +4140,9 @@
       <c r="AA19" s="194">
         <v>7</v>
       </c>
-      <c r="AB19" s="94">
+      <c r="AB19" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z19,ROUND($AA19/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC19" s="84"/>
       <c r="AD19" s="116"/>
@@ -4157,10 +4157,10 @@
         <v>36</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4180,10 +4180,10 @@
         <v>36</v>
       </c>
       <c r="P20" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q20" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R20" s="126" t="str">
         <f t="shared" si="1"/>
@@ -4193,10 +4193,10 @@
         <v>HKD3HI1HI11Y=PREA</v>
       </c>
       <c r="T20" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U20" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V20" s="196" t="e">
         <f t="shared" si="4"/>
@@ -4231,10 +4231,10 @@
         <v>35</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4254,10 +4254,10 @@
         <v>35</v>
       </c>
       <c r="P21" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q21" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R21" s="126" t="str">
         <f t="shared" si="1"/>
@@ -4288,9 +4288,9 @@
       <c r="AA21" s="194">
         <v>4</v>
       </c>
-      <c r="AB21" s="94">
+      <c r="AB21" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z21,ROUND($AA21/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC21" s="84"/>
       <c r="AD21" s="116"/>
@@ -4305,10 +4305,10 @@
         <v>34</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4328,10 +4328,10 @@
         <v>34</v>
       </c>
       <c r="P22" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q22" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R22" s="126" t="str">
         <f t="shared" si="1"/>
@@ -4341,10 +4341,10 @@
         <v>HKD3HI1HI13Y=PREA</v>
       </c>
       <c r="T22" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U22" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V22" s="196" t="e">
         <f t="shared" si="4"/>
@@ -4379,10 +4379,10 @@
         <v>33</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4402,10 +4402,10 @@
         <v>33</v>
       </c>
       <c r="P23" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q23" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R23" s="126" t="str">
         <f t="shared" si="1"/>
@@ -4415,10 +4415,10 @@
         <v>HKD3HI1HI14Y=PREA</v>
       </c>
       <c r="T23" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U23" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V23" s="196" t="e">
         <f t="shared" si="4"/>
@@ -4453,10 +4453,10 @@
         <v>32</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4476,10 +4476,10 @@
         <v>32</v>
       </c>
       <c r="P24" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q24" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R24" s="126" t="str">
         <f t="shared" si="1"/>
@@ -4510,9 +4510,9 @@
       <c r="AA24" s="194">
         <v>4</v>
       </c>
-      <c r="AB24" s="94">
+      <c r="AB24" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z24,ROUND($AA24/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC24" s="84"/>
       <c r="AD24" s="116"/>
@@ -4527,10 +4527,10 @@
         <v>31</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E25" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4550,10 +4550,10 @@
         <v>31</v>
       </c>
       <c r="P25" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q25" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R25" s="126" t="str">
         <f t="shared" si="1"/>
@@ -4563,10 +4563,10 @@
         <v>HKD3HI1HI16Y=PREA</v>
       </c>
       <c r="T25" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U25" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V25" s="196" t="e">
         <f t="shared" si="4"/>
@@ -4601,10 +4601,10 @@
         <v>30</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E26" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4624,10 +4624,10 @@
         <v>30</v>
       </c>
       <c r="P26" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q26" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R26" s="126" t="str">
         <f t="shared" si="1"/>
@@ -4637,10 +4637,10 @@
         <v>HKD3HI1HI17Y=PREA</v>
       </c>
       <c r="T26" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U26" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V26" s="196" t="e">
         <f t="shared" si="4"/>
@@ -4675,10 +4675,10 @@
         <v>29</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E27" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4698,10 +4698,10 @@
         <v>29</v>
       </c>
       <c r="P27" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q27" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R27" s="126" t="str">
         <f t="shared" si="1"/>
@@ -4711,10 +4711,10 @@
         <v>HKD3HI1HI18Y=PREA</v>
       </c>
       <c r="T27" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U27" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V27" s="196" t="e">
         <f t="shared" si="4"/>
@@ -4749,10 +4749,10 @@
         <v>28</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E28" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4772,10 +4772,10 @@
         <v>28</v>
       </c>
       <c r="P28" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R28" s="126" t="str">
         <f t="shared" si="1"/>
@@ -4785,10 +4785,10 @@
         <v>HKD3HI1HI19Y=PREA</v>
       </c>
       <c r="T28" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U28" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V28" s="196" t="e">
         <f t="shared" si="4"/>
@@ -4823,10 +4823,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E29" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4846,10 +4846,10 @@
         <v>27</v>
       </c>
       <c r="P29" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R29" s="126" t="str">
         <f t="shared" si="1"/>
@@ -4859,10 +4859,10 @@
         <v>HKD3HI1HI20Y=PREA</v>
       </c>
       <c r="T29" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U29" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V29" s="196" t="e">
         <f t="shared" si="4"/>
@@ -4897,10 +4897,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E30" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4920,10 +4920,10 @@
         <v>26</v>
       </c>
       <c r="P30" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R30" s="126" t="str">
         <f t="shared" si="1"/>
@@ -4933,10 +4933,10 @@
         <v>HKD3HI1HI21Y=PREA</v>
       </c>
       <c r="T30" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U30" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V30" s="196" t="e">
         <f t="shared" si="4"/>
@@ -4971,10 +4971,10 @@
         <v>25</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E31" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4994,10 +4994,10 @@
         <v>25</v>
       </c>
       <c r="P31" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q31" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R31" s="126" t="str">
         <f t="shared" si="1"/>
@@ -5007,10 +5007,10 @@
         <v>HKD3HI1HI22Y=PREA</v>
       </c>
       <c r="T31" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U31" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V31" s="196" t="e">
         <f t="shared" si="4"/>
@@ -5045,10 +5045,10 @@
         <v>24</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E32" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5068,10 +5068,10 @@
         <v>24</v>
       </c>
       <c r="P32" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q32" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R32" s="126" t="str">
         <f t="shared" si="1"/>
@@ -5081,10 +5081,10 @@
         <v>HKD3HI1HI23Y=PREA</v>
       </c>
       <c r="T32" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U32" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V32" s="196" t="e">
         <f t="shared" si="4"/>
@@ -5119,10 +5119,10 @@
         <v>23</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E33" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5142,10 +5142,10 @@
         <v>23</v>
       </c>
       <c r="P33" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q33" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R33" s="126" t="str">
         <f t="shared" si="1"/>
@@ -5155,10 +5155,10 @@
         <v>HKD3HI1HI24Y=PREA</v>
       </c>
       <c r="T33" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U33" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V33" s="196" t="e">
         <f t="shared" si="4"/>
@@ -5193,10 +5193,10 @@
         <v>22</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E34" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5216,10 +5216,10 @@
         <v>22</v>
       </c>
       <c r="P34" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q34" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R34" s="126" t="str">
         <f t="shared" si="1"/>
@@ -5229,10 +5229,10 @@
         <v>HKD3HI1HI25Y=PREA</v>
       </c>
       <c r="T34" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U34" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V34" s="196" t="e">
         <f t="shared" si="4"/>
@@ -5267,10 +5267,10 @@
         <v>21</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E35" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5290,10 +5290,10 @@
         <v>21</v>
       </c>
       <c r="P35" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q35" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R35" s="126" t="str">
         <f t="shared" si="1"/>
@@ -5303,10 +5303,10 @@
         <v>HKD3HI1HI26Y=PREA</v>
       </c>
       <c r="T35" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U35" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V35" s="196" t="e">
         <f t="shared" si="4"/>
@@ -5341,10 +5341,10 @@
         <v>20</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E36" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5364,10 +5364,10 @@
         <v>20</v>
       </c>
       <c r="P36" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q36" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R36" s="126" t="str">
         <f t="shared" si="1"/>
@@ -5377,10 +5377,10 @@
         <v>HKD3HI1HI27Y=PREA</v>
       </c>
       <c r="T36" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U36" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V36" s="196" t="e">
         <f t="shared" si="4"/>
@@ -5415,10 +5415,10 @@
         <v>19</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E37" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5438,10 +5438,10 @@
         <v>19</v>
       </c>
       <c r="P37" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q37" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R37" s="126" t="str">
         <f t="shared" si="1"/>
@@ -5451,10 +5451,10 @@
         <v>HKD3HI1HI28Y=PREA</v>
       </c>
       <c r="T37" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U37" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V37" s="196" t="e">
         <f t="shared" si="4"/>
@@ -5489,10 +5489,10 @@
         <v>18</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E38" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5512,10 +5512,10 @@
         <v>18</v>
       </c>
       <c r="P38" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q38" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R38" s="126" t="str">
         <f t="shared" si="1"/>
@@ -5525,10 +5525,10 @@
         <v>HKD3HI1HI29Y=PREA</v>
       </c>
       <c r="T38" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U38" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V38" s="196" t="e">
         <f t="shared" si="4"/>
@@ -5563,10 +5563,10 @@
         <v>17</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E39" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5586,10 +5586,10 @@
         <v>17</v>
       </c>
       <c r="P39" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q39" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R39" s="126" t="str">
         <f t="shared" si="1"/>
@@ -5599,10 +5599,10 @@
         <v>HKD3HI1HI30Y=PREA</v>
       </c>
       <c r="T39" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U39" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V39" s="196" t="e">
         <f t="shared" si="4"/>
@@ -5637,10 +5637,10 @@
         <v>16</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E40" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5660,10 +5660,10 @@
         <v>16</v>
       </c>
       <c r="P40" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q40" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R40" s="126" t="str">
         <f t="shared" si="1"/>
@@ -5673,10 +5673,10 @@
         <v>HKD3HI1HI35Y=PREA</v>
       </c>
       <c r="T40" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U40" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V40" s="196" t="e">
         <f t="shared" si="4"/>
@@ -5711,10 +5711,10 @@
         <v>15</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E41" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5734,10 +5734,10 @@
         <v>15</v>
       </c>
       <c r="P41" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q41" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R41" s="126" t="str">
         <f t="shared" si="1"/>
@@ -5747,10 +5747,10 @@
         <v>HKD3HI1HI40Y=PREA</v>
       </c>
       <c r="T41" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U41" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V41" s="196" t="e">
         <f t="shared" si="4"/>
@@ -5785,10 +5785,10 @@
         <v>14</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E42" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5808,10 +5808,10 @@
         <v>14</v>
       </c>
       <c r="P42" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q42" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R42" s="126" t="str">
         <f t="shared" si="1"/>
@@ -5821,10 +5821,10 @@
         <v>HKD3HI1HI50Y=PREA</v>
       </c>
       <c r="T42" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U42" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V42" s="196" t="e">
         <f t="shared" si="4"/>
@@ -5859,10 +5859,10 @@
         <v>13</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E43" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5882,10 +5882,10 @@
         <v>13</v>
       </c>
       <c r="P43" s="128" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q43" s="128" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R43" s="126" t="str">
         <f t="shared" si="1"/>
@@ -5895,10 +5895,10 @@
         <v>HKD3HI1HI60Y=PREA</v>
       </c>
       <c r="T43" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U43" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V43" s="196" t="e">
         <f t="shared" si="4"/>
@@ -6028,7 +6028,7 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N1" s="147"/>
       <c r="O1" s="113"/>
@@ -6059,7 +6059,7 @@
       <c r="Q2" s="88"/>
       <c r="R2" s="88"/>
       <c r="S2" s="110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T2" s="88"/>
       <c r="U2" s="88"/>
@@ -6068,7 +6068,7 @@
       <c r="X2" s="88"/>
       <c r="Y2" s="88"/>
       <c r="Z2" s="199" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA2" s="110" t="s">
         <v>2</v>
@@ -6106,7 +6106,7 @@
       <c r="AA3" s="146"/>
       <c r="AB3" s="107">
         <f>_xll.ohTrigger(AB5:AB43)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="84"/>
       <c r="AD3" s="116"/>
@@ -6135,7 +6135,7 @@
         <v>ohObjectSave - Invalid parent path : C:\projects\quantlib\QuantLibXL\Data2\XML\HKD\HKD_010_Sw3HI6HI.xml</v>
       </c>
       <c r="H4" s="220" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N4" s="93"/>
       <c r="O4" s="189"/>
@@ -6144,30 +6144,30 @@
       <c r="R4" s="143"/>
       <c r="S4" s="106" t="str">
         <f>_xll.RData(S5:S43,T4:U4,,ReutersRtMode,,T5)</f>
-        <v>Updated at 18:15:25</v>
+        <v>Paused at 11:12:44</v>
       </c>
       <c r="T4" s="142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U4" s="142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V4" s="102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W4" s="88"/>
       <c r="X4" s="104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y4" s="88"/>
       <c r="Z4" s="103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA4" s="188" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB4" s="187" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC4" s="84"/>
       <c r="AD4" s="116"/>
@@ -6182,10 +6182,10 @@
         <v>60</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E5" s="7" t="str">
         <f t="shared" ref="E5:E43" si="0">IF(ISBLANK(C5),"#",Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix)</f>
@@ -6205,10 +6205,10 @@
         <v>60</v>
       </c>
       <c r="P5" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q5" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q5" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R5" s="126" t="str">
         <f t="shared" ref="R5:R43" si="1">Currency&amp;$P5&amp;$Q5&amp;$O5</f>
@@ -6241,9 +6241,9 @@
         <f t="array" ref="AA5:AA43">QuoteLive</f>
         <v>-16</v>
       </c>
-      <c r="AB5" s="94">
+      <c r="AB5" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z5,ROUND($AA5/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC5" s="84"/>
       <c r="AD5" s="116"/>
@@ -6264,10 +6264,10 @@
         <v>108</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6287,10 +6287,10 @@
         <v>108</v>
       </c>
       <c r="P6" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q6" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q6" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R6" s="126" t="str">
         <f t="shared" si="1"/>
@@ -6321,9 +6321,9 @@
       <c r="AA6" s="194">
         <v>-15</v>
       </c>
-      <c r="AB6" s="94">
+      <c r="AB6" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z6,ROUND($AA6/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC6" s="84"/>
       <c r="AD6" s="116"/>
@@ -6344,10 +6344,10 @@
         <v>59</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6367,10 +6367,10 @@
         <v>59</v>
       </c>
       <c r="P7" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q7" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q7" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R7" s="126" t="str">
         <f t="shared" si="1"/>
@@ -6401,9 +6401,9 @@
       <c r="AA7" s="194">
         <v>-15</v>
       </c>
-      <c r="AB7" s="94">
+      <c r="AB7" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z7,ROUND($AA7/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC7" s="84"/>
       <c r="AD7" s="116"/>
@@ -6424,10 +6424,10 @@
         <v>58</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6447,10 +6447,10 @@
         <v>58</v>
       </c>
       <c r="P8" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q8" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q8" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R8" s="126" t="str">
         <f t="shared" si="1"/>
@@ -6460,10 +6460,10 @@
         <v>HKD3HI6HI15M=PREA</v>
       </c>
       <c r="T8" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U8" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V8" s="196" t="e">
         <f t="shared" si="3"/>
@@ -6504,10 +6504,10 @@
         <v>57</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6527,10 +6527,10 @@
         <v>57</v>
       </c>
       <c r="P9" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q9" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q9" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R9" s="126" t="str">
         <f t="shared" si="1"/>
@@ -6561,9 +6561,9 @@
       <c r="AA9" s="194">
         <v>-14</v>
       </c>
-      <c r="AB9" s="94">
+      <c r="AB9" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z9,ROUND($AA9/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC9" s="84"/>
       <c r="AD9" s="116"/>
@@ -6584,10 +6584,10 @@
         <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6616,10 +6616,10 @@
         <v>56</v>
       </c>
       <c r="P10" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q10" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q10" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R10" s="126" t="str">
         <f t="shared" si="1"/>
@@ -6629,10 +6629,10 @@
         <v>HKD3HI6HI21M=PREA</v>
       </c>
       <c r="T10" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U10" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V10" s="196" t="e">
         <f t="shared" si="3"/>
@@ -6667,10 +6667,10 @@
         <v>55</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6699,10 +6699,10 @@
         <v>55</v>
       </c>
       <c r="P11" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q11" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q11" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R11" s="126" t="str">
         <f t="shared" si="1"/>
@@ -6733,9 +6733,9 @@
       <c r="AA11" s="194">
         <v>-14</v>
       </c>
-      <c r="AB11" s="94">
+      <c r="AB11" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z11,ROUND($AA11/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC11" s="84"/>
       <c r="AD11" s="116"/>
@@ -6750,10 +6750,10 @@
         <v>53</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6782,10 +6782,10 @@
         <v>53</v>
       </c>
       <c r="P12" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q12" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q12" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R12" s="126" t="str">
         <f t="shared" si="1"/>
@@ -6816,9 +6816,9 @@
       <c r="AA12" s="194">
         <v>-13</v>
       </c>
-      <c r="AB12" s="94">
+      <c r="AB12" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z12,ROUND($AA12/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC12" s="84"/>
       <c r="AD12" s="116"/>
@@ -6833,10 +6833,10 @@
         <v>49</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6865,10 +6865,10 @@
         <v>49</v>
       </c>
       <c r="P13" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q13" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q13" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R13" s="126" t="str">
         <f t="shared" si="1"/>
@@ -6899,9 +6899,9 @@
       <c r="AA13" s="194">
         <v>-12</v>
       </c>
-      <c r="AB13" s="94">
+      <c r="AB13" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z13,ROUND($AA13/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC13" s="84"/>
       <c r="AD13" s="116"/>
@@ -6916,10 +6916,10 @@
         <v>47</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6948,10 +6948,10 @@
         <v>47</v>
       </c>
       <c r="P14" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q14" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q14" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R14" s="126" t="str">
         <f t="shared" si="1"/>
@@ -6982,9 +6982,9 @@
       <c r="AA14" s="194">
         <v>-11</v>
       </c>
-      <c r="AB14" s="94">
+      <c r="AB14" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z14,ROUND($AA14/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC14" s="84"/>
       <c r="AD14" s="116"/>
@@ -6999,10 +6999,10 @@
         <v>44</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7022,10 +7022,10 @@
         <v>44</v>
       </c>
       <c r="P15" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q15" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q15" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R15" s="126" t="str">
         <f t="shared" si="1"/>
@@ -7035,10 +7035,10 @@
         <v>HKD3HI6HI6Y=PREA</v>
       </c>
       <c r="T15" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U15" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V15" s="196" t="e">
         <f t="shared" si="3"/>
@@ -7073,10 +7073,10 @@
         <v>40</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7096,10 +7096,10 @@
         <v>40</v>
       </c>
       <c r="P16" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q16" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q16" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R16" s="126" t="str">
         <f t="shared" si="1"/>
@@ -7130,9 +7130,9 @@
       <c r="AA16" s="194">
         <v>-10</v>
       </c>
-      <c r="AB16" s="94">
+      <c r="AB16" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z16,ROUND($AA16/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC16" s="84"/>
       <c r="AD16" s="116"/>
@@ -7147,10 +7147,10 @@
         <v>39</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7170,10 +7170,10 @@
         <v>39</v>
       </c>
       <c r="P17" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q17" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q17" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R17" s="126" t="str">
         <f t="shared" si="1"/>
@@ -7183,10 +7183,10 @@
         <v>HKD3HI6HI8Y=PREA</v>
       </c>
       <c r="T17" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U17" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V17" s="196" t="e">
         <f t="shared" si="3"/>
@@ -7221,10 +7221,10 @@
         <v>38</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7244,10 +7244,10 @@
         <v>38</v>
       </c>
       <c r="P18" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q18" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q18" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R18" s="126" t="str">
         <f t="shared" si="1"/>
@@ -7257,10 +7257,10 @@
         <v>HKD3HI6HI9Y=PREA</v>
       </c>
       <c r="T18" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U18" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V18" s="196" t="e">
         <f t="shared" si="3"/>
@@ -7295,10 +7295,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7318,10 +7318,10 @@
         <v>37</v>
       </c>
       <c r="P19" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q19" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q19" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R19" s="126" t="str">
         <f t="shared" si="1"/>
@@ -7352,9 +7352,9 @@
       <c r="AA19" s="194">
         <v>-10</v>
       </c>
-      <c r="AB19" s="94">
+      <c r="AB19" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z19,ROUND($AA19/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC19" s="84"/>
       <c r="AD19" s="116"/>
@@ -7369,10 +7369,10 @@
         <v>36</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7392,10 +7392,10 @@
         <v>36</v>
       </c>
       <c r="P20" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q20" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q20" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R20" s="126" t="str">
         <f t="shared" si="1"/>
@@ -7405,10 +7405,10 @@
         <v>HKD3HI6HI11Y=PREA</v>
       </c>
       <c r="T20" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U20" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V20" s="196" t="e">
         <f t="shared" si="3"/>
@@ -7443,10 +7443,10 @@
         <v>35</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7466,10 +7466,10 @@
         <v>35</v>
       </c>
       <c r="P21" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q21" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q21" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R21" s="126" t="str">
         <f t="shared" si="1"/>
@@ -7500,9 +7500,9 @@
       <c r="AA21" s="194">
         <v>-11</v>
       </c>
-      <c r="AB21" s="94">
+      <c r="AB21" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z21,ROUND($AA21/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC21" s="84"/>
       <c r="AD21" s="116"/>
@@ -7517,10 +7517,10 @@
         <v>34</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7540,10 +7540,10 @@
         <v>34</v>
       </c>
       <c r="P22" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q22" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q22" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R22" s="126" t="str">
         <f t="shared" si="1"/>
@@ -7553,10 +7553,10 @@
         <v>HKD3HI6HI13Y=PREA</v>
       </c>
       <c r="T22" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U22" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V22" s="196" t="e">
         <f t="shared" si="3"/>
@@ -7591,10 +7591,10 @@
         <v>33</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7614,10 +7614,10 @@
         <v>33</v>
       </c>
       <c r="P23" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q23" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q23" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R23" s="126" t="str">
         <f t="shared" si="1"/>
@@ -7627,10 +7627,10 @@
         <v>HKD3HI6HI14Y=PREA</v>
       </c>
       <c r="T23" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U23" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V23" s="196" t="e">
         <f t="shared" si="3"/>
@@ -7665,10 +7665,10 @@
         <v>32</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7688,10 +7688,10 @@
         <v>32</v>
       </c>
       <c r="P24" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q24" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q24" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R24" s="126" t="str">
         <f t="shared" si="1"/>
@@ -7722,9 +7722,9 @@
       <c r="AA24" s="194">
         <v>-11</v>
       </c>
-      <c r="AB24" s="94">
+      <c r="AB24" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue($Z24,ROUND($AA24/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AC24" s="84"/>
       <c r="AD24" s="116"/>
@@ -7739,10 +7739,10 @@
         <v>31</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E25" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7762,10 +7762,10 @@
         <v>31</v>
       </c>
       <c r="P25" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q25" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q25" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R25" s="126" t="str">
         <f t="shared" si="1"/>
@@ -7775,10 +7775,10 @@
         <v>HKD3HI6HI16Y=PREA</v>
       </c>
       <c r="T25" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U25" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V25" s="196" t="e">
         <f t="shared" si="3"/>
@@ -7813,10 +7813,10 @@
         <v>30</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E26" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7836,10 +7836,10 @@
         <v>30</v>
       </c>
       <c r="P26" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q26" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q26" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R26" s="126" t="str">
         <f t="shared" si="1"/>
@@ -7849,10 +7849,10 @@
         <v>HKD3HI6HI17Y=PREA</v>
       </c>
       <c r="T26" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U26" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V26" s="196" t="e">
         <f t="shared" si="3"/>
@@ -7887,10 +7887,10 @@
         <v>29</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E27" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7910,10 +7910,10 @@
         <v>29</v>
       </c>
       <c r="P27" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q27" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q27" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R27" s="126" t="str">
         <f t="shared" si="1"/>
@@ -7923,10 +7923,10 @@
         <v>HKD3HI6HI18Y=PREA</v>
       </c>
       <c r="T27" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U27" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V27" s="196" t="e">
         <f t="shared" si="3"/>
@@ -7961,10 +7961,10 @@
         <v>28</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E28" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7984,10 +7984,10 @@
         <v>28</v>
       </c>
       <c r="P28" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q28" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q28" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R28" s="126" t="str">
         <f t="shared" si="1"/>
@@ -7997,10 +7997,10 @@
         <v>HKD3HI6HI19Y=PREA</v>
       </c>
       <c r="T28" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U28" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V28" s="196" t="e">
         <f t="shared" si="3"/>
@@ -8035,10 +8035,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E29" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8058,10 +8058,10 @@
         <v>27</v>
       </c>
       <c r="P29" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q29" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q29" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R29" s="126" t="str">
         <f t="shared" si="1"/>
@@ -8071,10 +8071,10 @@
         <v>HKD3HI6HI20Y=PREA</v>
       </c>
       <c r="T29" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U29" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V29" s="196" t="e">
         <f t="shared" si="3"/>
@@ -8109,10 +8109,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E30" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8132,10 +8132,10 @@
         <v>26</v>
       </c>
       <c r="P30" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q30" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q30" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R30" s="126" t="str">
         <f t="shared" si="1"/>
@@ -8145,10 +8145,10 @@
         <v>HKD3HI6HI21Y=PREA</v>
       </c>
       <c r="T30" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U30" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V30" s="196" t="e">
         <f t="shared" si="3"/>
@@ -8183,10 +8183,10 @@
         <v>25</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E31" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8206,10 +8206,10 @@
         <v>25</v>
       </c>
       <c r="P31" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q31" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q31" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R31" s="126" t="str">
         <f t="shared" si="1"/>
@@ -8219,10 +8219,10 @@
         <v>HKD3HI6HI22Y=PREA</v>
       </c>
       <c r="T31" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U31" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V31" s="196" t="e">
         <f t="shared" si="3"/>
@@ -8257,10 +8257,10 @@
         <v>24</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E32" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8280,10 +8280,10 @@
         <v>24</v>
       </c>
       <c r="P32" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q32" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q32" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R32" s="126" t="str">
         <f t="shared" si="1"/>
@@ -8293,10 +8293,10 @@
         <v>HKD3HI6HI23Y=PREA</v>
       </c>
       <c r="T32" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U32" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V32" s="196" t="e">
         <f t="shared" si="3"/>
@@ -8331,10 +8331,10 @@
         <v>23</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E33" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8354,10 +8354,10 @@
         <v>23</v>
       </c>
       <c r="P33" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q33" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q33" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R33" s="126" t="str">
         <f t="shared" si="1"/>
@@ -8367,10 +8367,10 @@
         <v>HKD3HI6HI24Y=PREA</v>
       </c>
       <c r="T33" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U33" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V33" s="196" t="e">
         <f t="shared" si="3"/>
@@ -8405,10 +8405,10 @@
         <v>22</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E34" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8428,10 +8428,10 @@
         <v>22</v>
       </c>
       <c r="P34" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q34" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q34" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R34" s="126" t="str">
         <f t="shared" si="1"/>
@@ -8441,10 +8441,10 @@
         <v>HKD3HI6HI25Y=PREA</v>
       </c>
       <c r="T34" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U34" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V34" s="196" t="e">
         <f t="shared" si="3"/>
@@ -8479,10 +8479,10 @@
         <v>21</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E35" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8502,10 +8502,10 @@
         <v>21</v>
       </c>
       <c r="P35" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q35" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q35" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R35" s="126" t="str">
         <f t="shared" si="1"/>
@@ -8515,10 +8515,10 @@
         <v>HKD3HI6HI26Y=PREA</v>
       </c>
       <c r="T35" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U35" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V35" s="196" t="e">
         <f t="shared" si="3"/>
@@ -8553,10 +8553,10 @@
         <v>20</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E36" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8576,10 +8576,10 @@
         <v>20</v>
       </c>
       <c r="P36" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q36" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q36" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R36" s="126" t="str">
         <f t="shared" si="1"/>
@@ -8589,10 +8589,10 @@
         <v>HKD3HI6HI27Y=PREA</v>
       </c>
       <c r="T36" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U36" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V36" s="196" t="e">
         <f t="shared" si="3"/>
@@ -8627,10 +8627,10 @@
         <v>19</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E37" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8650,10 +8650,10 @@
         <v>19</v>
       </c>
       <c r="P37" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q37" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q37" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R37" s="126" t="str">
         <f t="shared" si="1"/>
@@ -8663,10 +8663,10 @@
         <v>HKD3HI6HI28Y=PREA</v>
       </c>
       <c r="T37" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U37" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V37" s="196" t="e">
         <f t="shared" si="3"/>
@@ -8701,10 +8701,10 @@
         <v>18</v>
       </c>
       <c r="C38" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E38" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8724,10 +8724,10 @@
         <v>18</v>
       </c>
       <c r="P38" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q38" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q38" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R38" s="126" t="str">
         <f t="shared" si="1"/>
@@ -8737,10 +8737,10 @@
         <v>HKD3HI6HI29Y=PREA</v>
       </c>
       <c r="T38" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U38" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V38" s="196" t="e">
         <f t="shared" si="3"/>
@@ -8775,10 +8775,10 @@
         <v>17</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E39" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8798,10 +8798,10 @@
         <v>17</v>
       </c>
       <c r="P39" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q39" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q39" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R39" s="126" t="str">
         <f t="shared" si="1"/>
@@ -8811,10 +8811,10 @@
         <v>HKD3HI6HI30Y=PREA</v>
       </c>
       <c r="T39" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U39" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V39" s="196" t="e">
         <f t="shared" si="3"/>
@@ -8849,10 +8849,10 @@
         <v>16</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E40" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8872,10 +8872,10 @@
         <v>16</v>
       </c>
       <c r="P40" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q40" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q40" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R40" s="126" t="str">
         <f t="shared" si="1"/>
@@ -8885,10 +8885,10 @@
         <v>HKD3HI6HI35Y=PREA</v>
       </c>
       <c r="T40" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U40" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V40" s="196" t="e">
         <f t="shared" si="3"/>
@@ -8923,10 +8923,10 @@
         <v>15</v>
       </c>
       <c r="C41" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E41" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8946,10 +8946,10 @@
         <v>15</v>
       </c>
       <c r="P41" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q41" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q41" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R41" s="126" t="str">
         <f t="shared" si="1"/>
@@ -8959,10 +8959,10 @@
         <v>HKD3HI6HI40Y=PREA</v>
       </c>
       <c r="T41" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U41" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V41" s="196" t="e">
         <f t="shared" si="3"/>
@@ -8997,10 +8997,10 @@
         <v>14</v>
       </c>
       <c r="C42" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E42" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9020,10 +9020,10 @@
         <v>14</v>
       </c>
       <c r="P42" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q42" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q42" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R42" s="126" t="str">
         <f t="shared" si="1"/>
@@ -9033,10 +9033,10 @@
         <v>HKD3HI6HI50Y=PREA</v>
       </c>
       <c r="T42" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U42" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V42" s="196" t="e">
         <f t="shared" si="3"/>
@@ -9071,10 +9071,10 @@
         <v>13</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E43" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9094,10 +9094,10 @@
         <v>13</v>
       </c>
       <c r="P43" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q43" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="Q43" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="R43" s="126" t="str">
         <f t="shared" si="1"/>
@@ -9107,10 +9107,10 @@
         <v>HKD3HI6HI60Y=PREA</v>
       </c>
       <c r="T43" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U43" s="197" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V43" s="196" t="e">
         <f t="shared" si="3"/>
@@ -9205,7 +9205,7 @@
   <sheetPr codeName="Sheet34"/>
   <dimension ref="B1:Z17"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9322,7 +9322,7 @@
       <c r="R4" s="260"/>
       <c r="S4" s="260"/>
       <c r="T4" s="260" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U4" s="260"/>
       <c r="V4" s="260"/>
@@ -9334,65 +9334,65 @@
     <row r="5" spans="2:26" s="253" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="269"/>
       <c r="C5" s="261" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="261"/>
       <c r="E5" s="261" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F5" s="261" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G5" s="261" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="261" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I5" s="261" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J5" s="261" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" s="262" t="s">
+        <v>178</v>
+      </c>
+      <c r="L5" s="262" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" s="262" t="s">
         <v>180</v>
-      </c>
-      <c r="K5" s="262" t="s">
-        <v>179</v>
-      </c>
-      <c r="L5" s="262" t="s">
-        <v>180</v>
-      </c>
-      <c r="M5" s="262" t="s">
-        <v>181</v>
       </c>
       <c r="N5" s="262"/>
       <c r="O5" s="263" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="269"/>
       <c r="R5" s="212" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S5" s="211" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" s="211" t="str">
         <f>_xll.RData(T6:T14,U5:V5,"RTFEED:IDN",,,U6)</f>
-        <v>Updated at 18:15:26</v>
+        <v>Paused at 11:12:44</v>
       </c>
       <c r="U5" s="211" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V5" s="211" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W5" s="211" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X5" s="210" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y5" s="210" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z5" s="259"/>
     </row>
@@ -9409,10 +9409,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="264" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G6" s="264" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="H6" s="264" t="b">
         <v>1</v>
@@ -9441,7 +9441,7 @@
         <v/>
       </c>
       <c r="O6" s="219" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q6" s="269"/>
       <c r="R6" s="222" t="str">
@@ -9482,16 +9482,16 @@
         <v>116</v>
       </c>
       <c r="D7" s="264" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7" s="264">
         <v>0</v>
       </c>
       <c r="F7" s="264" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G7" s="264" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="H7" s="264" t="b">
         <v>1</v>
@@ -9509,26 +9509,26 @@
       </c>
       <c r="L7" s="266" t="str">
         <f>_xll.qlIborIndex(J7,FamilyName,D7,E7,Currency,F7,G7,H7,I7,K7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSW#0001</v>
+        <v>HkdHiborSW#0006</v>
       </c>
       <c r="M7" s="267" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C7&amp;"LastFixing_Quote",L7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHiborSWLastFixing_Quote#0001</v>
+        <v>HkdHiborSWLastFixing_Quote#0006</v>
       </c>
       <c r="N7" s="258" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
       <c r="O7" s="219" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="269"/>
       <c r="R7" s="223" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S7" s="204" t="str">
         <f t="shared" ref="S7:S14" si="3">IFERROR(L7,J7)</f>
-        <v>HkdHiborSW#0001</v>
+        <v>HkdHiborSW#0006</v>
       </c>
       <c r="T7" s="204" t="str">
         <f t="shared" si="1"/>
@@ -9567,10 +9567,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="264" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G8" s="264" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="H8" s="264" t="b">
         <v>1</v>
@@ -9588,18 +9588,18 @@
       </c>
       <c r="L8" s="266" t="str">
         <f>_xll.qlIborIndex(J8,FamilyName,D8,E8,Currency,F8,G8,H8,I8,K8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor2W#0001</v>
+        <v>HkdHibor2W#0003</v>
       </c>
       <c r="M8" s="267" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C8&amp;"LastFixing_Quote",L8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor2WLastFixing_Quote#0001</v>
+        <v>HkdHibor2WLastFixing_Quote#0003</v>
       </c>
       <c r="N8" s="258" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
       <c r="O8" s="219" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="269"/>
       <c r="R8" s="223" t="str">
@@ -9608,7 +9608,7 @@
       </c>
       <c r="S8" s="204" t="str">
         <f t="shared" si="3"/>
-        <v>HkdHibor2W#0001</v>
+        <v>HkdHibor2W#0003</v>
       </c>
       <c r="T8" s="204" t="str">
         <f t="shared" si="1"/>
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="264" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" s="264" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="H9" s="264" t="b">
         <v>1</v>
@@ -9668,18 +9668,18 @@
       </c>
       <c r="L9" s="266" t="str">
         <f>_xll.qlIborIndex(J9,FamilyName,D9,E9,Currency,F9,G9,H9,I9,K9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor1M#0001</v>
+        <v>HkdHibor1M#0003</v>
       </c>
       <c r="M9" s="267" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C9&amp;"LastFixing_Quote",L9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor1MLastFixing_Quote#0001</v>
+        <v>HkdHibor1MLastFixing_Quote#0003</v>
       </c>
       <c r="N9" s="258" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
       <c r="O9" s="219" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q9" s="269"/>
       <c r="R9" s="223" t="str">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="S9" s="204" t="str">
         <f t="shared" si="3"/>
-        <v>HkdHibor1M#0001</v>
+        <v>HkdHibor1M#0003</v>
       </c>
       <c r="T9" s="204" t="str">
         <f t="shared" si="1"/>
@@ -9727,10 +9727,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="264" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" s="264" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="H10" s="264" t="b">
         <v>1</v>
@@ -9748,18 +9748,18 @@
       </c>
       <c r="L10" s="266" t="str">
         <f>_xll.qlIborIndex(J10,FamilyName,D10,E10,Currency,F10,G10,H10,I10,K10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor2M#0001</v>
+        <v>HkdHibor2M#0003</v>
       </c>
       <c r="M10" s="267" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C10&amp;"LastFixing_Quote",L10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor2MLastFixing_Quote#0001</v>
+        <v>HkdHibor2MLastFixing_Quote#0003</v>
       </c>
       <c r="N10" s="258" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
       <c r="O10" s="219" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="269"/>
       <c r="R10" s="223" t="str">
@@ -9768,7 +9768,7 @@
       </c>
       <c r="S10" s="204" t="str">
         <f t="shared" si="3"/>
-        <v>HkdHibor2M#0001</v>
+        <v>HkdHibor2M#0003</v>
       </c>
       <c r="T10" s="204" t="str">
         <f t="shared" si="1"/>
@@ -9807,10 +9807,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="264" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G11" s="264" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="H11" s="264" t="b">
         <v>1</v>
@@ -9828,18 +9828,18 @@
       </c>
       <c r="L11" s="266" t="str">
         <f>_xll.qlIborIndex(J11,FamilyName,D11,E11,Currency,F11,G11,H11,I11,K11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0003</v>
       </c>
       <c r="M11" s="267" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C11&amp;"LastFixing_Quote",L11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor3MLastFixing_Quote#0001</v>
+        <v>HkdHibor3MLastFixing_Quote#0003</v>
       </c>
       <c r="N11" s="258" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
       <c r="O11" s="219" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="269"/>
       <c r="R11" s="223" t="str">
@@ -9848,7 +9848,7 @@
       </c>
       <c r="S11" s="204" t="str">
         <f t="shared" si="3"/>
-        <v>HkdHibor3M#0001</v>
+        <v>HkdHibor3M#0003</v>
       </c>
       <c r="T11" s="204" t="str">
         <f t="shared" si="1"/>
@@ -9887,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="264" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" s="264" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="H12" s="264" t="b">
         <v>1</v>
@@ -9908,18 +9908,18 @@
       </c>
       <c r="L12" s="266" t="str">
         <f>_xll.qlIborIndex(J12,FamilyName,D12,E12,Currency,F12,G12,H12,I12,K12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor6M#0001</v>
+        <v>HkdHibor6M#0003</v>
       </c>
       <c r="M12" s="267" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C12&amp;"LastFixing_Quote",L12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor6MLastFixing_Quote#0001</v>
+        <v>HkdHibor6MLastFixing_Quote#0003</v>
       </c>
       <c r="N12" s="258" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
       <c r="O12" s="219" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q12" s="269"/>
       <c r="R12" s="223" t="str">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="S12" s="204" t="str">
         <f t="shared" si="3"/>
-        <v>HkdHibor6M#0001</v>
+        <v>HkdHibor6M#0003</v>
       </c>
       <c r="T12" s="204" t="str">
         <f t="shared" si="1"/>
@@ -9967,10 +9967,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="264" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" s="264" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="H13" s="264" t="b">
         <v>1</v>
@@ -9988,18 +9988,18 @@
       </c>
       <c r="L13" s="266" t="str">
         <f>_xll.qlIborIndex(J13,FamilyName,D13,E13,Currency,F13,G13,H13,I13,K13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor9M#0001</v>
+        <v>HkdHibor9M#0003</v>
       </c>
       <c r="M13" s="267" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C13&amp;"LastFixing_Quote",L13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor9MLastFixing_Quote#0001</v>
+        <v>HkdHibor9MLastFixing_Quote#0003</v>
       </c>
       <c r="N13" s="258" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
       <c r="O13" s="219" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="269"/>
       <c r="R13" s="223" t="str">
@@ -10008,17 +10008,17 @@
       </c>
       <c r="S13" s="204" t="str">
         <f t="shared" si="3"/>
-        <v>HkdHibor9M#0001</v>
+        <v>HkdHibor9M#0003</v>
       </c>
       <c r="T13" s="204" t="str">
         <f t="shared" si="1"/>
         <v>HIHKD9MD=</v>
       </c>
       <c r="U13" s="206" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="V13" s="226" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W13" s="205" t="b">
         <f t="shared" si="2"/>
@@ -10047,10 +10047,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="264" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="264" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="H14" s="264" t="b">
         <v>1</v>
@@ -10068,18 +10068,18 @@
       </c>
       <c r="L14" s="266" t="str">
         <f>_xll.qlIborIndex(J14,FamilyName,D14,E14,Currency,F14,G14,H14,I14,K14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor1Y#0001</v>
+        <v>HkdHibor1Y#0003</v>
       </c>
       <c r="M14" s="267" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C14&amp;"LastFixing_Quote",L14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HkdHibor1YLastFixing_Quote#0001</v>
+        <v>HkdHibor1YLastFixing_Quote#0003</v>
       </c>
       <c r="N14" s="258" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
       <c r="O14" s="219" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="269"/>
       <c r="R14" s="224" t="str">
@@ -10088,7 +10088,7 @@
       </c>
       <c r="S14" s="201" t="str">
         <f t="shared" si="3"/>
-        <v>HkdHibor1Y#0001</v>
+        <v>HkdHibor1Y#0003</v>
       </c>
       <c r="T14" s="201" t="str">
         <f t="shared" si="1"/>
@@ -10118,7 +10118,7 @@
       <c r="B15" s="269"/>
       <c r="C15" s="264"/>
       <c r="D15" s="264" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E15" s="264"/>
       <c r="F15" s="264"/>
@@ -10247,16 +10247,16 @@
       <c r="D2" s="299"/>
       <c r="E2" s="300" t="str">
         <f>_xll.RHistory(F2:H2,B8:C8,C3,,"CH:In;Fd TSREPEAT:N SORT:"&amp;C7,E3)</f>
-        <v>Updated at 18:15:25</v>
+        <v>Paused at 11:12:45</v>
       </c>
       <c r="F2" s="301" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="301" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="301" t="s">
         <v>195</v>
-      </c>
-      <c r="G2" s="301" t="s">
-        <v>194</v>
-      </c>
-      <c r="H2" s="301" t="s">
-        <v>196</v>
       </c>
       <c r="P2" s="302"/>
       <c r="Q2" s="303"/>
@@ -10436,62 +10436,62 @@
     </row>
     <row r="3" spans="1:190" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B3" s="305" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" s="306" t="str">
         <f>"START:"&amp;C4&amp; " END:"&amp;C5&amp;" INTERVAL:1D"</f>
-        <v>START:42125 END:42135 INTERVAL:1D</v>
+        <v>START:42170 END:42180 INTERVAL:1D</v>
       </c>
       <c r="D3" s="307"/>
       <c r="E3" s="323"/>
       <c r="F3" s="308" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="308" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="308" t="s">
         <v>195</v>
       </c>
-      <c r="G3" s="308" t="s">
-        <v>194</v>
-      </c>
-      <c r="H3" s="308" t="s">
+      <c r="J3" s="296" t="s">
         <v>196</v>
       </c>
-      <c r="J3" s="296" t="s">
+      <c r="K3" s="296" t="s">
         <v>197</v>
       </c>
-      <c r="K3" s="296" t="s">
+      <c r="L3" s="296" t="s">
         <v>198</v>
-      </c>
-      <c r="L3" s="296" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:190" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="309" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="310">
         <f>C5-10</f>
-        <v>42125</v>
+        <v>42170</v>
       </c>
       <c r="D4" s="307"/>
       <c r="E4" s="311" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="311" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="311" t="s">
-        <v>188</v>
-      </c>
       <c r="G4" s="311" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H4" s="311" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:190" x14ac:dyDescent="0.2">
       <c r="B5" s="309" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="310">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42135</v>
+        <v>42180</v>
       </c>
       <c r="D5" s="307"/>
       <c r="E5" s="312">
@@ -10548,10 +10548,10 @@
     </row>
     <row r="7" spans="1:190" x14ac:dyDescent="0.2">
       <c r="B7" s="309" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="316" t="s">
         <v>190</v>
-      </c>
-      <c r="C7" s="316" t="s">
-        <v>191</v>
       </c>
       <c r="E7" s="312">
         <v>42131</v>
@@ -10580,10 +10580,10 @@
     </row>
     <row r="8" spans="1:190" x14ac:dyDescent="0.2">
       <c r="B8" s="302" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="303" t="s">
         <v>192</v>
-      </c>
-      <c r="C8" s="303" t="s">
-        <v>193</v>
       </c>
       <c r="E8" s="312">
         <v>42130</v>
@@ -12885,7 +12885,7 @@
       <c r="J2" s="111"/>
       <c r="K2" s="146"/>
       <c r="L2" s="110" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M2" s="146"/>
       <c r="N2" s="146"/>
@@ -12923,7 +12923,7 @@
       <c r="U3" s="146"/>
       <c r="V3" s="107">
         <f>_xll.ohTrigger(V5:V23)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W3" s="84"/>
       <c r="X3" s="281"/>
@@ -12946,39 +12946,39 @@
         <v>ohObjectSave - Invalid parent path : C:\projects\quantlib\QuantLibXL\Data2\XML\HKD\HKD_010_OIS.xml</v>
       </c>
       <c r="H4" s="219" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J4" s="93"/>
       <c r="K4" s="145"/>
       <c r="L4" s="106" t="str">
         <f>_xll.RData(L5:L23,M4:P4,,ReutersRtMode,,M5)</f>
-        <v>Updated at 18:15:25</v>
+        <v>Paused at 11:12:44</v>
       </c>
       <c r="M4" s="142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N4" s="142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O4" s="142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P4" s="142" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R4" s="88"/>
       <c r="S4" s="104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T4" s="88"/>
       <c r="U4" s="215" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V4" s="187" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W4" s="84"/>
       <c r="X4" s="281"/>
@@ -13015,16 +13015,16 @@
         <v>HKDSWOIS=TRHK</v>
       </c>
       <c r="M5" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N5" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O5" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P5" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="90" t="e">
         <f t="shared" ref="Q5:Q23" si="3">AVERAGE($M5,$N5)</f>
@@ -13078,16 +13078,16 @@
         <v>HKD2WOIS=TRHK</v>
       </c>
       <c r="M6" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N6" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O6" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P6" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="90" t="e">
         <f t="shared" si="3"/>
@@ -13140,16 +13140,16 @@
         <v>HKD3WOIS=TRHK</v>
       </c>
       <c r="M7" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N7" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O7" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P7" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="90" t="e">
         <f t="shared" si="3"/>
@@ -13225,9 +13225,9 @@
       <c r="U8" s="156">
         <v>0.06</v>
       </c>
-      <c r="V8" s="94">
+      <c r="V8" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E8,$U8/100,ISERROR(F8))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W8" s="84"/>
       <c r="X8" s="281"/>
@@ -13287,9 +13287,9 @@
       <c r="U9" s="156">
         <v>0.06</v>
       </c>
-      <c r="V9" s="94">
+      <c r="V9" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E9,$U9/100,ISERROR(F9))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W9" s="84"/>
       <c r="X9" s="281"/>
@@ -13349,9 +13349,9 @@
       <c r="U10" s="156">
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="V10" s="94">
+      <c r="V10" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E10,$U10/100,ISERROR(F10))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W10" s="84"/>
       <c r="X10" s="281"/>
@@ -13411,9 +13411,9 @@
       <c r="U11" s="156">
         <v>0.1</v>
       </c>
-      <c r="V11" s="94">
+      <c r="V11" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E11,$U11/100,ISERROR(F11))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W11" s="84"/>
       <c r="X11" s="281"/>
@@ -13473,9 +13473,9 @@
       <c r="U12" s="156">
         <v>0.11</v>
       </c>
-      <c r="V12" s="94">
+      <c r="V12" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E12,$U12/100,ISERROR(F12))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W12" s="84"/>
       <c r="X12" s="281"/>
@@ -13535,9 +13535,9 @@
       <c r="U13" s="156">
         <v>0.12000000000000001</v>
       </c>
-      <c r="V13" s="94">
+      <c r="V13" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E13,$U13/100,ISERROR(F13))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W13" s="84"/>
       <c r="X13" s="281"/>
@@ -13574,16 +13574,16 @@
         <v>HKD7MOIS=TRHK</v>
       </c>
       <c r="M14" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N14" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O14" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P14" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="90" t="e">
         <f t="shared" si="3"/>
@@ -13636,16 +13636,16 @@
         <v>HKD8MOIS=TRHK</v>
       </c>
       <c r="M15" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N15" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O15" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P15" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q15" s="90" t="e">
         <f t="shared" si="3"/>
@@ -13721,9 +13721,9 @@
       <c r="U16" s="156">
         <v>0.13</v>
       </c>
-      <c r="V16" s="94">
+      <c r="V16" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E16,$U16/100,ISERROR(F16))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W16" s="84"/>
       <c r="X16" s="281"/>
@@ -13760,16 +13760,16 @@
         <v>HKD10MOIS=TRHK</v>
       </c>
       <c r="M17" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N17" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O17" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P17" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="90" t="e">
         <f t="shared" si="3"/>
@@ -13822,16 +13822,16 @@
         <v>HKD11MOIS=TRHK</v>
       </c>
       <c r="M18" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N18" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O18" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P18" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q18" s="90" t="e">
         <f t="shared" si="3"/>
@@ -13907,9 +13907,9 @@
       <c r="U19" s="156">
         <v>0.15000000000000002</v>
       </c>
-      <c r="V19" s="94">
+      <c r="V19" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E19,$U19/100,ISERROR(F19))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W19" s="84"/>
       <c r="X19" s="281"/>
@@ -13946,16 +13946,16 @@
         <v>HKD15MOIS=TRHK</v>
       </c>
       <c r="M20" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N20" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O20" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P20" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q20" s="90" t="e">
         <f t="shared" si="3"/>
@@ -14008,16 +14008,16 @@
         <v>HKD18MOIS=TRHK</v>
       </c>
       <c r="M21" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N21" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O21" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P21" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q21" s="90" t="e">
         <f t="shared" si="3"/>
@@ -14070,16 +14070,16 @@
         <v>HKD21MOIS=TRHK</v>
       </c>
       <c r="M22" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N22" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O22" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P22" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q22" s="90" t="e">
         <f t="shared" si="3"/>
@@ -14132,16 +14132,16 @@
         <v>HKD2YOIS=TRHK</v>
       </c>
       <c r="M23" s="86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N23" s="86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O23" s="86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P23" s="86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q23" s="131" t="e">
         <f t="shared" si="3"/>
@@ -14320,7 +14320,7 @@
       <c r="N2" s="108"/>
       <c r="O2" s="107">
         <f>_xll.ohTrigger(O4:O21)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P2" s="84"/>
     </row>
@@ -14340,26 +14340,26 @@
         <v>ohObjectSave - Invalid parent path : C:\projects\quantlib\QuantLibXL\Data2\XML\HKD\HKD_010_Deposits.xml</v>
       </c>
       <c r="F3" s="221" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H3" s="93"/>
       <c r="I3" s="214" t="str">
         <f>_xll.RData(I4:I21,J3:J3,,ReutersRtMode,,J4)</f>
-        <v>Updated at 18:15:26</v>
+        <v>Paused at 11:12:44</v>
       </c>
       <c r="J3" s="105" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3" s="88"/>
       <c r="L3" s="104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M3" s="88"/>
       <c r="N3" s="103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O3" s="102" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P3" s="84"/>
     </row>
@@ -14390,21 +14390,21 @@
         <v>4.7990000000000005E-2</v>
       </c>
       <c r="K4" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L4" s="100">
         <v>4.7990000000000005E-2</v>
       </c>
       <c r="M4" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N4" s="167">
         <f t="array" ref="N4:N21">QuoteLive</f>
         <v>4.7990000000000005E-2</v>
       </c>
-      <c r="O4" s="98">
+      <c r="O4" s="98" t="e">
         <f>_xll.qlSimpleQuoteSetValue(C4,N4/100,ISERROR(D4))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P4" s="84"/>
     </row>
@@ -14432,16 +14432,16 @@
         <v>HIHKDTND=</v>
       </c>
       <c r="J5" s="90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K5" s="216" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L5" s="97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M5" s="216" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N5" s="156" t="str">
         <v>*The record could not be found</v>
@@ -14476,16 +14476,16 @@
         <v>HIHKDSND=</v>
       </c>
       <c r="J6" s="90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K6" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L6" s="97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M6" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N6" s="156" t="str">
         <v>*The record could not be found</v>
@@ -14520,16 +14520,16 @@
         <v>HIHKDSWD=</v>
       </c>
       <c r="J7" s="90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K7" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L7" s="97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M7" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N7" s="156" t="str">
         <v>*The record could not be found</v>
@@ -14567,20 +14567,20 @@
         <v>0.13820000000000002</v>
       </c>
       <c r="K8" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L8" s="97">
         <v>0.13820000000000002</v>
       </c>
       <c r="M8" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N8" s="156">
         <v>0.13820000000000002</v>
       </c>
-      <c r="O8" s="94">
+      <c r="O8" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(C8,N8/100,ISERROR(D8))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P8" s="84"/>
     </row>
@@ -14608,16 +14608,16 @@
         <v>HIHKD3WD=</v>
       </c>
       <c r="J9" s="90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K9" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L9" s="97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M9" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N9" s="156" t="str">
         <v>*The record could not be found</v>
@@ -14655,20 +14655,20 @@
         <v>0.24043000000000003</v>
       </c>
       <c r="K10" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L10" s="97">
         <v>0.24043000000000003</v>
       </c>
       <c r="M10" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N10" s="156">
         <v>0.24043000000000003</v>
       </c>
-      <c r="O10" s="94">
+      <c r="O10" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(C10,N10/100,ISERROR(D10))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P10" s="84"/>
     </row>
@@ -14699,20 +14699,20 @@
         <v>0.30371000000000004</v>
       </c>
       <c r="K11" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L11" s="97">
         <v>0.30371000000000004</v>
       </c>
       <c r="M11" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N11" s="156">
         <v>0.30371000000000004</v>
       </c>
-      <c r="O11" s="94">
+      <c r="O11" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(C11,N11/100,ISERROR(D11))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P11" s="84"/>
     </row>
@@ -14743,20 +14743,20 @@
         <v>0.38600000000000001</v>
       </c>
       <c r="K12" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L12" s="97">
         <v>0.38600000000000001</v>
       </c>
       <c r="M12" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N12" s="156">
         <v>0.38600000000000001</v>
       </c>
-      <c r="O12" s="94">
+      <c r="O12" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(C12,N12/100,ISERROR(D12))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P12" s="84"/>
     </row>
@@ -14784,16 +14784,16 @@
         <v>HIHKD4MD=</v>
       </c>
       <c r="J13" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K13" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L13" s="97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M13" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N13" s="156" t="str">
         <v>Access Denied: User req to PE(122)</v>
@@ -14828,16 +14828,16 @@
         <v>HIHKD5MD=</v>
       </c>
       <c r="J14" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K14" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L14" s="97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M14" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N14" s="156" t="str">
         <v>Access Denied: User req to PE(122)</v>
@@ -14875,20 +14875,20 @@
         <v>0.54136000000000006</v>
       </c>
       <c r="K15" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L15" s="97">
         <v>0.54136000000000006</v>
       </c>
       <c r="M15" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N15" s="156">
         <v>0.54136000000000006</v>
       </c>
-      <c r="O15" s="94">
+      <c r="O15" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(C15,N15/100,ISERROR(D15))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P15" s="84"/>
     </row>
@@ -14916,16 +14916,16 @@
         <v>HIHKD7MD=</v>
       </c>
       <c r="J16" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K16" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L16" s="97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M16" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N16" s="156" t="str">
         <v>Access Denied: User req to PE(122)</v>
@@ -14960,16 +14960,16 @@
         <v>HIHKD8MD=</v>
       </c>
       <c r="J17" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K17" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L17" s="97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M17" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N17" s="156" t="str">
         <v>Access Denied: User req to PE(122)</v>
@@ -15004,16 +15004,16 @@
         <v>HIHKD9MD=</v>
       </c>
       <c r="J18" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K18" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L18" s="97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M18" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N18" s="156" t="str">
         <v>Access Denied: User req to PE(122)</v>
@@ -15048,16 +15048,16 @@
         <v>HIHKD10MD=</v>
       </c>
       <c r="J19" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K19" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L19" s="97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M19" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N19" s="156" t="str">
         <v>Access Denied: User req to PE(122)</v>
@@ -15092,16 +15092,16 @@
         <v>HIHKD11MD=</v>
       </c>
       <c r="J20" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K20" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L20" s="97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M20" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N20" s="156" t="str">
         <v>Access Denied: User req to PE(122)</v>
@@ -15139,20 +15139,20 @@
         <v>0.84153000000000011</v>
       </c>
       <c r="K21" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L21" s="89">
         <v>0.84153000000000011</v>
       </c>
       <c r="M21" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N21" s="149">
         <v>0.84153000000000011</v>
       </c>
-      <c r="O21" s="85">
+      <c r="O21" s="85" t="e">
         <f>_xll.qlSimpleQuoteSetValue(C21,N21/100,ISERROR(D21))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="P21" s="84"/>
     </row>
@@ -15213,7 +15213,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="213" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -15254,7 +15254,7 @@
       <c r="K2" s="146"/>
       <c r="L2" s="146"/>
       <c r="M2" s="110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N2" s="146"/>
       <c r="O2" s="146"/>
@@ -15295,7 +15295,7 @@
       <c r="V3" s="146"/>
       <c r="W3" s="107">
         <f>_xll.ohTrigger(W7:W28)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X3" s="109"/>
       <c r="Y3" s="116"/>
@@ -15319,7 +15319,7 @@
         <v>ohObjectSave - Invalid parent path : C:\projects\quantlib\QuantLibXL\Data2\XML\HKD\HKD_010_FRA.xml</v>
       </c>
       <c r="G4" s="219" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I4" s="111"/>
       <c r="J4" s="145"/>
@@ -15327,33 +15327,33 @@
       <c r="L4" s="143"/>
       <c r="M4" s="106" t="str">
         <f>_xll.RData(M7:M38,N4:Q4,,ReutersRtMode,,N7)</f>
-        <v>Updated at 18:15:25</v>
+        <v>Paused at 11:12:44</v>
       </c>
       <c r="N4" s="142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O4" s="142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P4" s="142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="142" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R4" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S4" s="88"/>
       <c r="T4" s="104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U4" s="88"/>
       <c r="V4" s="215" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W4" s="187" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X4" s="109"/>
       <c r="Y4" s="116"/>
@@ -15479,16 +15479,16 @@
         <v>HKDT3F1=PREA</v>
       </c>
       <c r="N7" s="138" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O7" s="138" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P7" s="137" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="137" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R7" s="101" t="e">
         <f>_xll.qlMidSafe($N7,$O7)</f>
@@ -15548,16 +15548,16 @@
         <v>HKDTOM3F1=PREA</v>
       </c>
       <c r="N8" s="133" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O8" s="133" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P8" s="132" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="132" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R8" s="131" t="e">
         <f>_xll.qlMidSafe($N8,$O8)</f>
@@ -15639,9 +15639,9 @@
       <c r="V9" s="156">
         <v>0.41000000000000003</v>
       </c>
-      <c r="W9" s="94">
+      <c r="W9" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D9,V9/100,ISERROR(E9))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X9" s="84"/>
       <c r="Y9" s="116"/>
@@ -15707,9 +15707,9 @@
       <c r="V10" s="156">
         <v>0.41000000000000003</v>
       </c>
-      <c r="W10" s="94">
+      <c r="W10" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D10,V10/100,ISERROR(E10))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X10" s="84"/>
       <c r="Y10" s="116"/>
@@ -15775,9 +15775,9 @@
       <c r="V11" s="156">
         <v>0.43</v>
       </c>
-      <c r="W11" s="94">
+      <c r="W11" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D11,V11/100,ISERROR(E11))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X11" s="84"/>
       <c r="Y11" s="116"/>
@@ -15843,9 +15843,9 @@
       <c r="V12" s="156">
         <v>0.46</v>
       </c>
-      <c r="W12" s="94">
+      <c r="W12" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D12,V12/100,ISERROR(E12))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X12" s="84"/>
       <c r="Y12" s="116"/>
@@ -15911,9 +15911,9 @@
       <c r="V13" s="156">
         <v>0.49</v>
       </c>
-      <c r="W13" s="94">
+      <c r="W13" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D13,V13/100,ISERROR(E13))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X13" s="84"/>
       <c r="Y13" s="116"/>
@@ -15979,9 +15979,9 @@
       <c r="V14" s="156">
         <v>0.51</v>
       </c>
-      <c r="W14" s="94">
+      <c r="W14" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D14,V14/100,ISERROR(E14))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X14" s="84"/>
       <c r="Y14" s="116"/>
@@ -16047,9 +16047,9 @@
       <c r="V15" s="156">
         <v>0.55000000000000004</v>
       </c>
-      <c r="W15" s="94">
+      <c r="W15" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D15,V15/100,ISERROR(E15))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X15" s="84"/>
       <c r="Y15" s="116"/>
@@ -16115,9 +16115,9 @@
       <c r="V16" s="156">
         <v>0.60000000000000009</v>
       </c>
-      <c r="W16" s="94">
+      <c r="W16" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D16,V16/100,ISERROR(E16))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X16" s="84"/>
       <c r="Y16" s="116"/>
@@ -16183,9 +16183,9 @@
       <c r="V17" s="156">
         <v>0.64</v>
       </c>
-      <c r="W17" s="94">
+      <c r="W17" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D17,V17/100,ISERROR(E17))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X17" s="84"/>
       <c r="Y17" s="116"/>
@@ -16228,16 +16228,16 @@
         <v>HKDT6F1=PREA</v>
       </c>
       <c r="N18" s="138" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O18" s="138" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P18" s="137" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q18" s="137" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R18" s="101" t="e">
         <f>_xll.qlMidSafe($N18,$O18)</f>
@@ -16296,16 +16296,16 @@
         <v>HKDTOM6F1=PREA</v>
       </c>
       <c r="N19" s="133" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O19" s="133" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P19" s="132" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="132" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R19" s="131" t="e">
         <f>_xll.qlMidSafe($N19,$O19)</f>
@@ -16389,9 +16389,9 @@
       <c r="V20" s="156">
         <v>0.51</v>
       </c>
-      <c r="W20" s="94">
+      <c r="W20" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D20,V20/100,ISERROR(E20))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X20" s="84"/>
       <c r="Y20" s="116"/>
@@ -16459,9 +16459,9 @@
       <c r="V21" s="156">
         <v>0.52</v>
       </c>
-      <c r="W21" s="94">
+      <c r="W21" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D21,V21/100,ISERROR(E21))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X21" s="84"/>
       <c r="Y21" s="116"/>
@@ -16529,9 +16529,9 @@
       <c r="V22" s="156">
         <v>0.55000000000000004</v>
       </c>
-      <c r="W22" s="94">
+      <c r="W22" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D22,V22/100,ISERROR(E22))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X22" s="84"/>
       <c r="Y22" s="116"/>
@@ -16599,9 +16599,9 @@
       <c r="V23" s="156">
         <v>0.58000000000000007</v>
       </c>
-      <c r="W23" s="94">
+      <c r="W23" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D23,V23/100,ISERROR(E23))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X23" s="84"/>
       <c r="Y23" s="116"/>
@@ -16669,9 +16669,9 @@
       <c r="V24" s="156">
         <v>0.62000000000000011</v>
       </c>
-      <c r="W24" s="94">
+      <c r="W24" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D24,V24/100,ISERROR(E24))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X24" s="84"/>
       <c r="Y24" s="116"/>
@@ -16739,9 +16739,9 @@
       <c r="V25" s="156">
         <v>0.65999999999999992</v>
       </c>
-      <c r="W25" s="94">
+      <c r="W25" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D25,V25/100,ISERROR(E25))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X25" s="84"/>
       <c r="Y25" s="116"/>
@@ -16786,16 +16786,16 @@
         <v>HKD7X13F=PREA</v>
       </c>
       <c r="N26" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O26" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P26" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q26" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R26" s="90" t="e">
         <f>_xll.qlMidSafe($N26,$O26)</f>
@@ -16856,16 +16856,16 @@
         <v>HKD8X14F=PREA</v>
       </c>
       <c r="N27" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O27" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P27" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q27" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R27" s="90" t="e">
         <f>_xll.qlMidSafe($N27,$O27)</f>
@@ -16926,16 +16926,16 @@
         <v>HKD9X15F=PREA</v>
       </c>
       <c r="N28" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O28" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P28" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R28" s="90" t="e">
         <f>_xll.qlMidSafe($N28,$O28)</f>
@@ -16996,16 +16996,16 @@
         <v>HKD10X16F=PREA</v>
       </c>
       <c r="N29" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O29" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P29" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R29" s="90" t="e">
         <f>_xll.qlMidSafe($N29,$O29)</f>
@@ -17066,16 +17066,16 @@
         <v>HKD11X17F=PREA</v>
       </c>
       <c r="N30" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O30" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P30" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R30" s="90" t="e">
         <f>_xll.qlMidSafe($N30,$O30)</f>
@@ -17159,9 +17159,9 @@
       <c r="V31" s="156">
         <v>1.07</v>
       </c>
-      <c r="W31" s="94">
+      <c r="W31" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D31,V31/100,ISERROR(E31))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X31" s="84"/>
       <c r="Y31" s="116"/>
@@ -17206,16 +17206,16 @@
         <v>HKD13X19F=PREA</v>
       </c>
       <c r="N32" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O32" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P32" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q32" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R32" s="90" t="e">
         <f>_xll.qlMidSafe($N32,$O32)</f>
@@ -17276,16 +17276,16 @@
         <v>HKD14X20F=PREA</v>
       </c>
       <c r="N33" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O33" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P33" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q33" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R33" s="90" t="e">
         <f>_xll.qlMidSafe($N33,$O33)</f>
@@ -17346,16 +17346,16 @@
         <v>HKD15X21F=PREA</v>
       </c>
       <c r="N34" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O34" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P34" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q34" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R34" s="90" t="e">
         <f>_xll.qlMidSafe($N34,$O34)</f>
@@ -17416,16 +17416,16 @@
         <v>HKD16X22F=PREA</v>
       </c>
       <c r="N35" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O35" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P35" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q35" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R35" s="90" t="e">
         <f>_xll.qlMidSafe($N35,$O35)</f>
@@ -17486,16 +17486,16 @@
         <v>HKD17X23F=PREA</v>
       </c>
       <c r="N36" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O36" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P36" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q36" s="126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R36" s="90" t="e">
         <f>_xll.qlMidSafe($N36,$O36)</f>
@@ -17579,9 +17579,9 @@
       <c r="V37" s="156">
         <v>1.46</v>
       </c>
-      <c r="W37" s="94">
+      <c r="W37" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D37,V37/100,ISERROR(E37))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X37" s="84"/>
       <c r="Y37" s="116"/>
@@ -17625,16 +17625,16 @@
         <v>HKD12X24F=PREA</v>
       </c>
       <c r="N38" s="122" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O38" s="122" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P38" s="121" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q38" s="121" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R38" s="120" t="e">
         <f>_xll.qlMidSafe($N38,$O38)</f>
@@ -18105,7 +18105,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J1" s="114"/>
       <c r="K1" s="113"/>
@@ -18160,7 +18160,7 @@
       <c r="Y2" s="146"/>
       <c r="Z2" s="107">
         <f>_xll.ohTrigger(Z4:Z39)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="173"/>
       <c r="AB2" s="116"/>
@@ -18191,7 +18191,7 @@
         <v>ohObjectSave - Invalid parent path : C:\projects\quantlib\QuantLibXL\Data2\XML\HKD\HKD_010_FUT3M.xml</v>
       </c>
       <c r="H3" s="219" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J3" s="111"/>
       <c r="K3" s="181" t="s">
@@ -18204,40 +18204,40 @@
         <v>99</v>
       </c>
       <c r="N3" s="177" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O3" s="180" t="str">
         <f>_xll.RData(O4:O39,P3:T3,,ReutersRtMode,,P4)</f>
-        <v>Updated at 18:15:26</v>
+        <v>Paused at 11:12:45</v>
       </c>
       <c r="P3" s="177" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q3" s="177" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R3" s="177" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S3" s="177" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T3" s="177" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U3" s="179" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V3" s="88"/>
       <c r="W3" s="178" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X3" s="88"/>
       <c r="Y3" s="181" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z3" s="176" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA3" s="109"/>
       <c r="AB3" s="116"/>
@@ -18254,15 +18254,15 @@
       </c>
       <c r="D4" s="62" t="str">
         <f t="array" ref="D4:D39">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C4:$C39)</f>
-        <v>K5</v>
+        <v>N5</v>
       </c>
       <c r="E4" s="56" t="str">
         <f t="shared" ref="E4:E35" si="0">Currency&amp;$D$2&amp;$E$2&amp;$D4&amp;QuoteSuffix</f>
-        <v>HKDFUT3MK5_Quote</v>
+        <v>HKDFUT3MN5_Quote</v>
       </c>
       <c r="F4" s="61" t="str">
         <f>_xll.qlSimpleQuote(E4,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK5_Quote#0001</v>
+        <v>HKDFUT3MN5_Quote#0001</v>
       </c>
       <c r="G4" s="285" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -18278,15 +18278,15 @@
       </c>
       <c r="M4" s="99" t="str">
         <f t="array" ref="M4:M39">_xll.qlIMMcode(FuturesDates)</f>
-        <v>K5</v>
+        <v>N5</v>
       </c>
       <c r="N4" s="170">
         <f t="array" ref="N4:N39">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,$L4:$L39)</f>
-        <v>42144</v>
+        <v>42200</v>
       </c>
       <c r="O4" s="99" t="str">
         <f>"HIR"&amp;M4</f>
-        <v>HIRK5</v>
+        <v>HIRN5</v>
       </c>
       <c r="P4" s="169">
         <v>42142</v>
@@ -18316,9 +18316,9 @@
         <f t="array" ref="Y4:Y39">QuoteLive</f>
         <v>99.59</v>
       </c>
-      <c r="Z4" s="101">
+      <c r="Z4" s="101" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E4,$Y4,ISERROR(F4))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA4" s="109"/>
       <c r="AB4" s="116"/>
@@ -18334,15 +18334,15 @@
         <v>0</v>
       </c>
       <c r="D5" s="57" t="str">
-        <v>M5</v>
+        <v>Q5</v>
       </c>
       <c r="E5" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MM5_Quote</v>
+        <v>HKDFUT3MQ5_Quote</v>
       </c>
       <c r="F5" s="61" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM5_Quote#0001</v>
+        <v>HKDFUT3MQ5_Quote#0001</v>
       </c>
       <c r="G5" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -18357,14 +18357,14 @@
         <v>0</v>
       </c>
       <c r="M5" s="95" t="str">
-        <v>M5</v>
+        <v>Q5</v>
       </c>
       <c r="N5" s="159">
-        <v>42172</v>
+        <v>42235</v>
       </c>
       <c r="O5" s="95" t="str">
         <f t="shared" ref="O5:O39" si="1">"HIR"&amp;M5</f>
-        <v>HIRM5</v>
+        <v>HIRQ5</v>
       </c>
       <c r="P5" s="158">
         <v>42170</v>
@@ -18393,9 +18393,9 @@
       <c r="Y5" s="156">
         <v>99.59</v>
       </c>
-      <c r="Z5" s="90">
+      <c r="Z5" s="90" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E5,$Y5,ISERROR(F5))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA5" s="109"/>
       <c r="AB5" s="116"/>
@@ -18411,15 +18411,15 @@
         <v>0</v>
       </c>
       <c r="D6" s="57" t="str">
-        <v>N5</v>
+        <v>U5</v>
       </c>
       <c r="E6" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MN5_Quote</v>
+        <v>HKDFUT3MU5_Quote</v>
       </c>
       <c r="F6" s="61" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN5_Quote#0001</v>
+        <v>HKDFUT3MU5_Quote#0001</v>
       </c>
       <c r="G6" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -18434,14 +18434,14 @@
         <v>0</v>
       </c>
       <c r="M6" s="95" t="str">
-        <v>N5</v>
+        <v>U5</v>
       </c>
       <c r="N6" s="159">
-        <v>42200</v>
+        <v>42263</v>
       </c>
       <c r="O6" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRN5</v>
+        <v>HIRU5</v>
       </c>
       <c r="P6" s="158">
         <v>42198</v>
@@ -18470,9 +18470,9 @@
       <c r="Y6" s="156">
         <v>99.59</v>
       </c>
-      <c r="Z6" s="90">
+      <c r="Z6" s="90" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E6,$Y6,ISERROR(F6))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA6" s="109"/>
       <c r="AB6" s="116"/>
@@ -18488,15 +18488,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="57" t="str">
-        <v>Q5</v>
+        <v>V5</v>
       </c>
       <c r="E7" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MQ5_Quote</v>
+        <v>HKDFUT3MV5_Quote</v>
       </c>
       <c r="F7" s="61" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ5_Quote#0001</v>
+        <v>HKDFUT3MV5_Quote#0001</v>
       </c>
       <c r="G7" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -18511,29 +18511,29 @@
         <v>0</v>
       </c>
       <c r="M7" s="95" t="str">
-        <v>Q5</v>
+        <v>V5</v>
       </c>
       <c r="N7" s="159">
-        <v>42235</v>
+        <v>42298</v>
       </c>
       <c r="O7" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRQ5</v>
+        <v>HIRV5</v>
       </c>
       <c r="P7" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R7" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S7" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T7" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U7" s="90" t="e">
         <f>_xll.qlMidSafe($Q7,$R7)</f>
@@ -18565,15 +18565,15 @@
         <v>0</v>
       </c>
       <c r="D8" s="57" t="str">
-        <v>U5</v>
+        <v>X5</v>
       </c>
       <c r="E8" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MU5_Quote</v>
+        <v>HKDFUT3MX5_Quote</v>
       </c>
       <c r="F8" s="61" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU5_Quote#0001</v>
+        <v>HKDFUT3MX5_Quote#0001</v>
       </c>
       <c r="G8" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -18588,14 +18588,14 @@
         <v>0</v>
       </c>
       <c r="M8" s="95" t="str">
-        <v>U5</v>
+        <v>X5</v>
       </c>
       <c r="N8" s="159">
-        <v>42263</v>
+        <v>42326</v>
       </c>
       <c r="O8" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRU5</v>
+        <v>HIRX5</v>
       </c>
       <c r="P8" s="158">
         <v>42261</v>
@@ -18624,9 +18624,9 @@
       <c r="Y8" s="156">
         <v>99.550000000000011</v>
       </c>
-      <c r="Z8" s="90">
+      <c r="Z8" s="90" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E8,$Y8,ISERROR(F8))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA8" s="109"/>
       <c r="AB8" s="116"/>
@@ -18642,15 +18642,15 @@
         <v>0</v>
       </c>
       <c r="D9" s="57" t="str">
-        <v>V5</v>
+        <v>Z5</v>
       </c>
       <c r="E9" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MV5_Quote</v>
+        <v>HKDFUT3MZ5_Quote</v>
       </c>
       <c r="F9" s="61" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV5_Quote#0001</v>
+        <v>HKDFUT3MZ5_Quote#0001</v>
       </c>
       <c r="G9" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -18665,29 +18665,29 @@
         <v>0</v>
       </c>
       <c r="M9" s="95" t="str">
-        <v>V5</v>
+        <v>Z5</v>
       </c>
       <c r="N9" s="159">
-        <v>42298</v>
+        <v>42354</v>
       </c>
       <c r="O9" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRV5</v>
+        <v>HIRZ5</v>
       </c>
       <c r="P9" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q9" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R9" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S9" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T9" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U9" s="90" t="e">
         <f>_xll.qlMidSafe($Q9,$R9)</f>
@@ -18719,15 +18719,15 @@
         <v>0</v>
       </c>
       <c r="D10" s="57" t="str">
-        <v>X5</v>
+        <v>F6</v>
       </c>
       <c r="E10" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MX5_Quote</v>
+        <v>HKDFUT3MF6_Quote</v>
       </c>
       <c r="F10" s="61" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX5_Quote#0001</v>
+        <v>HKDFUT3MF6_Quote#0001</v>
       </c>
       <c r="G10" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -18742,29 +18742,29 @@
         <v>0</v>
       </c>
       <c r="M10" s="95" t="str">
-        <v>X5</v>
+        <v>F6</v>
       </c>
       <c r="N10" s="159">
-        <v>42326</v>
+        <v>42389</v>
       </c>
       <c r="O10" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRX5</v>
+        <v>HIRF6</v>
       </c>
       <c r="P10" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R10" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S10" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T10" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U10" s="90" t="e">
         <f>_xll.qlMidSafe($Q10,$R10)</f>
@@ -18796,15 +18796,15 @@
         <v>0</v>
       </c>
       <c r="D11" s="57" t="str">
-        <v>Z5</v>
+        <v>G6</v>
       </c>
       <c r="E11" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MZ5_Quote</v>
+        <v>HKDFUT3MG6_Quote</v>
       </c>
       <c r="F11" s="61" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ5_Quote#0001</v>
+        <v>HKDFUT3MG6_Quote#0001</v>
       </c>
       <c r="G11" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -18819,14 +18819,14 @@
         <v>0</v>
       </c>
       <c r="M11" s="95" t="str">
-        <v>Z5</v>
+        <v>G6</v>
       </c>
       <c r="N11" s="159">
-        <v>42354</v>
+        <v>42417</v>
       </c>
       <c r="O11" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRZ5</v>
+        <v>HIRG6</v>
       </c>
       <c r="P11" s="158">
         <v>42352</v>
@@ -18855,9 +18855,9 @@
       <c r="Y11" s="156">
         <v>99.45</v>
       </c>
-      <c r="Z11" s="90">
+      <c r="Z11" s="90" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E11,$Y11,ISERROR(F11))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA11" s="109"/>
       <c r="AB11" s="116"/>
@@ -18873,15 +18873,15 @@
         <v>0</v>
       </c>
       <c r="D12" s="57" t="str">
-        <v>F6</v>
+        <v>H6</v>
       </c>
       <c r="E12" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MF6_Quote</v>
+        <v>HKDFUT3MH6_Quote</v>
       </c>
       <c r="F12" s="61" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF6_Quote#0001</v>
+        <v>HKDFUT3MH6_Quote#0001</v>
       </c>
       <c r="G12" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -18896,29 +18896,29 @@
         <v>0</v>
       </c>
       <c r="M12" s="95" t="str">
-        <v>F6</v>
+        <v>H6</v>
       </c>
       <c r="N12" s="159">
-        <v>42389</v>
+        <v>42445</v>
       </c>
       <c r="O12" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRF6</v>
+        <v>HIRH6</v>
       </c>
       <c r="P12" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q12" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R12" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S12" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T12" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U12" s="90" t="e">
         <f>_xll.qlMidSafe($Q12,$R12)</f>
@@ -18950,15 +18950,15 @@
         <v>0</v>
       </c>
       <c r="D13" s="57" t="str">
-        <v>G6</v>
+        <v>J6</v>
       </c>
       <c r="E13" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MG6_Quote</v>
+        <v>HKDFUT3MJ6_Quote</v>
       </c>
       <c r="F13" s="61" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG6_Quote#0001</v>
+        <v>HKDFUT3MJ6_Quote#0001</v>
       </c>
       <c r="G13" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -18973,29 +18973,29 @@
         <v>0</v>
       </c>
       <c r="M13" s="95" t="str">
-        <v>G6</v>
+        <v>J6</v>
       </c>
       <c r="N13" s="159">
-        <v>42417</v>
+        <v>42480</v>
       </c>
       <c r="O13" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRG6</v>
+        <v>HIRJ6</v>
       </c>
       <c r="P13" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R13" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S13" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T13" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U13" s="90" t="e">
         <f>_xll.qlMidSafe($Q13,$R13)</f>
@@ -19027,15 +19027,15 @@
         <v>0</v>
       </c>
       <c r="D14" s="57" t="str">
-        <v>H6</v>
+        <v>K6</v>
       </c>
       <c r="E14" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MH6_Quote</v>
+        <v>HKDFUT3MK6_Quote</v>
       </c>
       <c r="F14" s="61" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH6_Quote#0001</v>
+        <v>HKDFUT3MK6_Quote#0001</v>
       </c>
       <c r="G14" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -19050,14 +19050,14 @@
         <v>0</v>
       </c>
       <c r="M14" s="95" t="str">
-        <v>H6</v>
+        <v>K6</v>
       </c>
       <c r="N14" s="159">
-        <v>42445</v>
+        <v>42508</v>
       </c>
       <c r="O14" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRH6</v>
+        <v>HIRK6</v>
       </c>
       <c r="P14" s="158">
         <v>42443</v>
@@ -19086,9 +19086,9 @@
       <c r="Y14" s="156">
         <v>99.25</v>
       </c>
-      <c r="Z14" s="90">
+      <c r="Z14" s="90" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E14,$Y14,ISERROR(F14))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA14" s="109"/>
       <c r="AB14" s="116"/>
@@ -19104,15 +19104,15 @@
         <v>0</v>
       </c>
       <c r="D15" s="57" t="str">
-        <v>J6</v>
+        <v>M6</v>
       </c>
       <c r="E15" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MJ6_Quote</v>
+        <v>HKDFUT3MM6_Quote</v>
       </c>
       <c r="F15" s="55" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ6_Quote#0001</v>
+        <v>HKDFUT3MM6_Quote#0001</v>
       </c>
       <c r="G15" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -19127,29 +19127,29 @@
         <v>0</v>
       </c>
       <c r="M15" s="95" t="str">
-        <v>J6</v>
+        <v>M6</v>
       </c>
       <c r="N15" s="159">
-        <v>42480</v>
+        <v>42536</v>
       </c>
       <c r="O15" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRJ6</v>
+        <v>HIRM6</v>
       </c>
       <c r="P15" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q15" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R15" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S15" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T15" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U15" s="90" t="e">
         <f>_xll.qlMidSafe($Q15,$R15)</f>
@@ -19181,15 +19181,15 @@
         <v>0</v>
       </c>
       <c r="D16" s="57" t="str">
-        <v>K6</v>
+        <v>N6</v>
       </c>
       <c r="E16" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MK6_Quote</v>
+        <v>HKDFUT3MN6_Quote</v>
       </c>
       <c r="F16" s="55" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK6_Quote#0001</v>
+        <v>HKDFUT3MN6_Quote#0001</v>
       </c>
       <c r="G16" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -19204,29 +19204,29 @@
         <v>0</v>
       </c>
       <c r="M16" s="95" t="str">
-        <v>K6</v>
+        <v>N6</v>
       </c>
       <c r="N16" s="159">
-        <v>42508</v>
+        <v>42571</v>
       </c>
       <c r="O16" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRK6</v>
+        <v>HIRN6</v>
       </c>
       <c r="P16" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R16" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S16" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T16" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U16" s="90" t="e">
         <f>_xll.qlMidSafe($Q16,$R16)</f>
@@ -19258,15 +19258,15 @@
         <v>0</v>
       </c>
       <c r="D17" s="57" t="str">
-        <v>M6</v>
+        <v>Q6</v>
       </c>
       <c r="E17" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MM6_Quote</v>
+        <v>HKDFUT3MQ6_Quote</v>
       </c>
       <c r="F17" s="55" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM6_Quote#0001</v>
+        <v>HKDFUT3MQ6_Quote#0001</v>
       </c>
       <c r="G17" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -19281,14 +19281,14 @@
         <v>0</v>
       </c>
       <c r="M17" s="95" t="str">
-        <v>M6</v>
+        <v>Q6</v>
       </c>
       <c r="N17" s="159">
-        <v>42536</v>
+        <v>42599</v>
       </c>
       <c r="O17" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRM6</v>
+        <v>HIRQ6</v>
       </c>
       <c r="P17" s="158">
         <v>42534</v>
@@ -19335,15 +19335,15 @@
         <v>0</v>
       </c>
       <c r="D18" s="57" t="str">
-        <v>N6</v>
+        <v>U6</v>
       </c>
       <c r="E18" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MN6_Quote</v>
+        <v>HKDFUT3MU6_Quote</v>
       </c>
       <c r="F18" s="55" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN6_Quote#0001</v>
+        <v>HKDFUT3MU6_Quote#0001</v>
       </c>
       <c r="G18" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -19358,29 +19358,29 @@
         <v>0</v>
       </c>
       <c r="M18" s="95" t="str">
-        <v>N6</v>
+        <v>U6</v>
       </c>
       <c r="N18" s="159">
-        <v>42571</v>
+        <v>42634</v>
       </c>
       <c r="O18" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRN6</v>
+        <v>HIRU6</v>
       </c>
       <c r="P18" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q18" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R18" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S18" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T18" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U18" s="90" t="e">
         <f>_xll.qlMidSafe($Q18,$R18)</f>
@@ -19412,15 +19412,15 @@
         <v>0</v>
       </c>
       <c r="D19" s="57" t="str">
-        <v>Q6</v>
+        <v>V6</v>
       </c>
       <c r="E19" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MQ6_Quote</v>
+        <v>HKDFUT3MV6_Quote</v>
       </c>
       <c r="F19" s="55" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ6_Quote#0001</v>
+        <v>HKDFUT3MV6_Quote#0001</v>
       </c>
       <c r="G19" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -19435,29 +19435,29 @@
         <v>0</v>
       </c>
       <c r="M19" s="95" t="str">
-        <v>Q6</v>
+        <v>V6</v>
       </c>
       <c r="N19" s="159">
-        <v>42599</v>
+        <v>42662</v>
       </c>
       <c r="O19" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRQ6</v>
+        <v>HIRV6</v>
       </c>
       <c r="P19" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R19" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S19" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T19" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U19" s="90" t="e">
         <f>_xll.qlMidSafe($Q19,$R19)</f>
@@ -19489,15 +19489,15 @@
         <v>0</v>
       </c>
       <c r="D20" s="57" t="str">
-        <v>U6</v>
+        <v>X6</v>
       </c>
       <c r="E20" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MU6_Quote</v>
+        <v>HKDFUT3MX6_Quote</v>
       </c>
       <c r="F20" s="55" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU6_Quote#0001</v>
+        <v>HKDFUT3MX6_Quote#0001</v>
       </c>
       <c r="G20" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -19512,14 +19512,14 @@
         <v>0</v>
       </c>
       <c r="M20" s="95" t="str">
-        <v>U6</v>
+        <v>X6</v>
       </c>
       <c r="N20" s="159">
-        <v>42634</v>
+        <v>42690</v>
       </c>
       <c r="O20" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRU6</v>
+        <v>HIRX6</v>
       </c>
       <c r="P20" s="158">
         <v>42632</v>
@@ -19566,15 +19566,15 @@
         <v>0</v>
       </c>
       <c r="D21" s="57" t="str">
-        <v>V6</v>
+        <v>Z6</v>
       </c>
       <c r="E21" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MV6_Quote</v>
+        <v>HKDFUT3MZ6_Quote</v>
       </c>
       <c r="F21" s="55" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV6_Quote#0001</v>
+        <v>HKDFUT3MZ6_Quote#0001</v>
       </c>
       <c r="G21" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -19589,29 +19589,29 @@
         <v>0</v>
       </c>
       <c r="M21" s="95" t="str">
-        <v>V6</v>
+        <v>Z6</v>
       </c>
       <c r="N21" s="159">
-        <v>42662</v>
+        <v>42725</v>
       </c>
       <c r="O21" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRV6</v>
+        <v>HIRZ6</v>
       </c>
       <c r="P21" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q21" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R21" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S21" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T21" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U21" s="90" t="e">
         <f>_xll.qlMidSafe($Q21,$R21)</f>
@@ -19643,15 +19643,15 @@
         <v>0</v>
       </c>
       <c r="D22" s="57" t="str">
-        <v>X6</v>
+        <v>F7</v>
       </c>
       <c r="E22" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MX6_Quote</v>
+        <v>HKDFUT3MF7_Quote</v>
       </c>
       <c r="F22" s="55" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX6_Quote#0001</v>
+        <v>HKDFUT3MF7_Quote#0001</v>
       </c>
       <c r="G22" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -19666,29 +19666,29 @@
         <v>0</v>
       </c>
       <c r="M22" s="95" t="str">
-        <v>X6</v>
+        <v>F7</v>
       </c>
       <c r="N22" s="159">
-        <v>42690</v>
+        <v>42753</v>
       </c>
       <c r="O22" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRX6</v>
+        <v>HIRF7</v>
       </c>
       <c r="P22" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q22" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R22" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S22" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T22" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U22" s="90" t="e">
         <f>_xll.qlMidSafe($Q22,$R22)</f>
@@ -19720,15 +19720,15 @@
         <v>0</v>
       </c>
       <c r="D23" s="57" t="str">
-        <v>Z6</v>
+        <v>G7</v>
       </c>
       <c r="E23" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MZ6_Quote</v>
+        <v>HKDFUT3MG7_Quote</v>
       </c>
       <c r="F23" s="55" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ6_Quote#0001</v>
+        <v>HKDFUT3MG7_Quote#0001</v>
       </c>
       <c r="G23" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -19743,14 +19743,14 @@
         <v>0</v>
       </c>
       <c r="M23" s="95" t="str">
-        <v>Z6</v>
+        <v>G7</v>
       </c>
       <c r="N23" s="159">
-        <v>42725</v>
+        <v>42781</v>
       </c>
       <c r="O23" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRZ6</v>
+        <v>HIRG7</v>
       </c>
       <c r="P23" s="158">
         <v>42723</v>
@@ -19797,15 +19797,15 @@
         <v>0</v>
       </c>
       <c r="D24" s="57" t="str">
-        <v>F7</v>
+        <v>H7</v>
       </c>
       <c r="E24" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MF7_Quote</v>
+        <v>HKDFUT3MH7_Quote</v>
       </c>
       <c r="F24" s="55" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF7_Quote#0001</v>
+        <v>HKDFUT3MH7_Quote#0001</v>
       </c>
       <c r="G24" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -19820,29 +19820,29 @@
         <v>0</v>
       </c>
       <c r="M24" s="95" t="str">
-        <v>F7</v>
+        <v>H7</v>
       </c>
       <c r="N24" s="159">
-        <v>42753</v>
+        <v>42809</v>
       </c>
       <c r="O24" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRF7</v>
+        <v>HIRH7</v>
       </c>
       <c r="P24" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q24" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R24" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S24" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T24" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U24" s="90" t="e">
         <f>_xll.qlMidSafe($Q24,$R24)</f>
@@ -19874,15 +19874,15 @@
         <v>0</v>
       </c>
       <c r="D25" s="57" t="str">
-        <v>G7</v>
+        <v>J7</v>
       </c>
       <c r="E25" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MG7_Quote</v>
+        <v>HKDFUT3MJ7_Quote</v>
       </c>
       <c r="F25" s="55" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG7_Quote#0001</v>
+        <v>HKDFUT3MJ7_Quote#0001</v>
       </c>
       <c r="G25" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -19897,29 +19897,29 @@
         <v>0</v>
       </c>
       <c r="M25" s="95" t="str">
-        <v>G7</v>
+        <v>J7</v>
       </c>
       <c r="N25" s="159">
-        <v>42781</v>
+        <v>42844</v>
       </c>
       <c r="O25" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRG7</v>
+        <v>HIRJ7</v>
       </c>
       <c r="P25" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q25" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R25" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S25" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T25" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U25" s="90" t="e">
         <f>_xll.qlMidSafe($Q25,$R25)</f>
@@ -19951,15 +19951,15 @@
         <v>0</v>
       </c>
       <c r="D26" s="57" t="str">
-        <v>H7</v>
+        <v>K7</v>
       </c>
       <c r="E26" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MH7_Quote</v>
+        <v>HKDFUT3MK7_Quote</v>
       </c>
       <c r="F26" s="55" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH7_Quote#0001</v>
+        <v>HKDFUT3MK7_Quote#0001</v>
       </c>
       <c r="G26" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -19974,14 +19974,14 @@
         <v>0</v>
       </c>
       <c r="M26" s="95" t="str">
-        <v>H7</v>
+        <v>K7</v>
       </c>
       <c r="N26" s="159">
-        <v>42809</v>
+        <v>42872</v>
       </c>
       <c r="O26" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRH7</v>
+        <v>HIRK7</v>
       </c>
       <c r="P26" s="158">
         <v>42807</v>
@@ -20028,15 +20028,15 @@
         <v>0</v>
       </c>
       <c r="D27" s="57" t="str">
-        <v>J7</v>
+        <v>M7</v>
       </c>
       <c r="E27" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MJ7_Quote</v>
+        <v>HKDFUT3MM7_Quote</v>
       </c>
       <c r="F27" s="55" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ7_Quote#0001</v>
+        <v>HKDFUT3MM7_Quote#0001</v>
       </c>
       <c r="G27" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -20051,29 +20051,29 @@
         <v>0</v>
       </c>
       <c r="M27" s="95" t="str">
-        <v>J7</v>
+        <v>M7</v>
       </c>
       <c r="N27" s="159">
-        <v>42844</v>
+        <v>42907</v>
       </c>
       <c r="O27" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRJ7</v>
+        <v>HIRM7</v>
       </c>
       <c r="P27" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q27" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R27" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S27" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T27" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U27" s="90" t="e">
         <f>_xll.qlMidSafe($Q27,$R27)</f>
@@ -20105,15 +20105,15 @@
         <v>0</v>
       </c>
       <c r="D28" s="57" t="str">
-        <v>K7</v>
+        <v>N7</v>
       </c>
       <c r="E28" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MK7_Quote</v>
+        <v>HKDFUT3MN7_Quote</v>
       </c>
       <c r="F28" s="55" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK7_Quote#0001</v>
+        <v>HKDFUT3MN7_Quote#0001</v>
       </c>
       <c r="G28" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -20128,29 +20128,29 @@
         <v>0</v>
       </c>
       <c r="M28" s="95" t="str">
-        <v>K7</v>
+        <v>N7</v>
       </c>
       <c r="N28" s="159">
-        <v>42872</v>
+        <v>42935</v>
       </c>
       <c r="O28" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRK7</v>
+        <v>HIRN7</v>
       </c>
       <c r="P28" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R28" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S28" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T28" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U28" s="90" t="e">
         <f>_xll.qlMidSafe($Q28,$R28)</f>
@@ -20182,15 +20182,15 @@
         <v>0</v>
       </c>
       <c r="D29" s="57" t="str">
-        <v>M7</v>
+        <v>Q7</v>
       </c>
       <c r="E29" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MM7_Quote</v>
+        <v>HKDFUT3MQ7_Quote</v>
       </c>
       <c r="F29" s="55" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM7_Quote#0001</v>
+        <v>HKDFUT3MQ7_Quote#0001</v>
       </c>
       <c r="G29" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -20205,29 +20205,29 @@
         <v>0</v>
       </c>
       <c r="M29" s="95" t="str">
-        <v>M7</v>
+        <v>Q7</v>
       </c>
       <c r="N29" s="159">
-        <v>42907</v>
+        <v>42963</v>
       </c>
       <c r="O29" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRM7</v>
+        <v>HIRQ7</v>
       </c>
       <c r="P29" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R29" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S29" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T29" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U29" s="90" t="e">
         <f>_xll.qlMidSafe($Q29,$R29)</f>
@@ -20259,15 +20259,15 @@
         <v>0</v>
       </c>
       <c r="D30" s="57" t="str">
-        <v>N7</v>
+        <v>U7</v>
       </c>
       <c r="E30" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MN7_Quote</v>
+        <v>HKDFUT3MU7_Quote</v>
       </c>
       <c r="F30" s="55" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN7_Quote#0001</v>
+        <v>HKDFUT3MU7_Quote#0001</v>
       </c>
       <c r="G30" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -20282,29 +20282,29 @@
         <v>0</v>
       </c>
       <c r="M30" s="95" t="str">
-        <v>N7</v>
+        <v>U7</v>
       </c>
       <c r="N30" s="159">
-        <v>42935</v>
+        <v>42998</v>
       </c>
       <c r="O30" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRN7</v>
+        <v>HIRU7</v>
       </c>
       <c r="P30" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R30" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S30" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T30" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U30" s="90" t="e">
         <f>_xll.qlMidSafe($Q30,$R30)</f>
@@ -20336,15 +20336,15 @@
         <v>0</v>
       </c>
       <c r="D31" s="57" t="str">
-        <v>Q7</v>
+        <v>V7</v>
       </c>
       <c r="E31" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MQ7_Quote</v>
+        <v>HKDFUT3MV7_Quote</v>
       </c>
       <c r="F31" s="55" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ7_Quote#0001</v>
+        <v>HKDFUT3MV7_Quote#0001</v>
       </c>
       <c r="G31" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -20359,29 +20359,29 @@
         <v>0</v>
       </c>
       <c r="M31" s="95" t="str">
-        <v>Q7</v>
+        <v>V7</v>
       </c>
       <c r="N31" s="159">
-        <v>42963</v>
+        <v>43026</v>
       </c>
       <c r="O31" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRQ7</v>
+        <v>HIRV7</v>
       </c>
       <c r="P31" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q31" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R31" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S31" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T31" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U31" s="90" t="e">
         <f>_xll.qlMidSafe($Q31,$R31)</f>
@@ -20413,15 +20413,15 @@
         <v>0</v>
       </c>
       <c r="D32" s="57" t="str">
-        <v>U7</v>
+        <v>X7</v>
       </c>
       <c r="E32" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MU7_Quote</v>
+        <v>HKDFUT3MX7_Quote</v>
       </c>
       <c r="F32" s="55" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU7_Quote#0001</v>
+        <v>HKDFUT3MX7_Quote#0001</v>
       </c>
       <c r="G32" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -20436,29 +20436,29 @@
         <v>0</v>
       </c>
       <c r="M32" s="95" t="str">
-        <v>U7</v>
+        <v>X7</v>
       </c>
       <c r="N32" s="159">
-        <v>42998</v>
+        <v>43054</v>
       </c>
       <c r="O32" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRU7</v>
+        <v>HIRX7</v>
       </c>
       <c r="P32" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q32" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R32" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S32" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T32" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U32" s="90" t="e">
         <f>_xll.qlMidSafe($Q32,$R32)</f>
@@ -20490,15 +20490,15 @@
         <v>0</v>
       </c>
       <c r="D33" s="57" t="str">
-        <v>V7</v>
+        <v>Z7</v>
       </c>
       <c r="E33" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MV7_Quote</v>
+        <v>HKDFUT3MZ7_Quote</v>
       </c>
       <c r="F33" s="55" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV7_Quote#0001</v>
+        <v>HKDFUT3MZ7_Quote#0001</v>
       </c>
       <c r="G33" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -20513,29 +20513,29 @@
         <v>0</v>
       </c>
       <c r="M33" s="95" t="str">
-        <v>V7</v>
+        <v>Z7</v>
       </c>
       <c r="N33" s="159">
-        <v>43026</v>
+        <v>43089</v>
       </c>
       <c r="O33" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRV7</v>
+        <v>HIRZ7</v>
       </c>
       <c r="P33" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q33" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R33" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S33" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T33" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U33" s="90" t="e">
         <f>_xll.qlMidSafe($Q33,$R33)</f>
@@ -20567,15 +20567,15 @@
         <v>0</v>
       </c>
       <c r="D34" s="57" t="str">
-        <v>X7</v>
+        <v>F8</v>
       </c>
       <c r="E34" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MX7_Quote</v>
+        <v>HKDFUT3MF8_Quote</v>
       </c>
       <c r="F34" s="55" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX7_Quote#0001</v>
+        <v>HKDFUT3MF8_Quote#0001</v>
       </c>
       <c r="G34" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -20590,29 +20590,29 @@
         <v>0</v>
       </c>
       <c r="M34" s="95" t="str">
-        <v>X7</v>
+        <v>F8</v>
       </c>
       <c r="N34" s="159">
-        <v>43054</v>
+        <v>43117</v>
       </c>
       <c r="O34" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRX7</v>
+        <v>HIRF8</v>
       </c>
       <c r="P34" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q34" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R34" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S34" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T34" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U34" s="90" t="e">
         <f>_xll.qlMidSafe($Q34,$R34)</f>
@@ -20644,15 +20644,15 @@
         <v>0</v>
       </c>
       <c r="D35" s="57" t="str">
-        <v>Z7</v>
+        <v>G8</v>
       </c>
       <c r="E35" s="56" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MZ7_Quote</v>
+        <v>HKDFUT3MG8_Quote</v>
       </c>
       <c r="F35" s="55" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ7_Quote#0001</v>
+        <v>HKDFUT3MG8_Quote#0001</v>
       </c>
       <c r="G35" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -20667,29 +20667,29 @@
         <v>0</v>
       </c>
       <c r="M35" s="95" t="str">
-        <v>Z7</v>
+        <v>G8</v>
       </c>
       <c r="N35" s="159">
-        <v>43089</v>
+        <v>43152</v>
       </c>
       <c r="O35" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRZ7</v>
+        <v>HIRG8</v>
       </c>
       <c r="P35" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q35" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R35" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S35" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T35" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U35" s="90" t="e">
         <f>_xll.qlMidSafe($Q35,$R35)</f>
@@ -20721,15 +20721,15 @@
         <v>0</v>
       </c>
       <c r="D36" s="57" t="str">
-        <v>F8</v>
+        <v>H8</v>
       </c>
       <c r="E36" s="56" t="str">
         <f t="shared" ref="E36:E39" si="2">Currency&amp;$D$2&amp;$E$2&amp;$D36&amp;QuoteSuffix</f>
-        <v>HKDFUT3MF8_Quote</v>
+        <v>HKDFUT3MH8_Quote</v>
       </c>
       <c r="F36" s="55" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF8_Quote#0001</v>
+        <v>HKDFUT3MH8_Quote#0001</v>
       </c>
       <c r="G36" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -20744,29 +20744,29 @@
         <v>0</v>
       </c>
       <c r="M36" s="95" t="str">
-        <v>F8</v>
+        <v>H8</v>
       </c>
       <c r="N36" s="159">
-        <v>43117</v>
+        <v>43180</v>
       </c>
       <c r="O36" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRF8</v>
+        <v>HIRH8</v>
       </c>
       <c r="P36" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q36" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R36" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S36" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T36" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U36" s="90" t="e">
         <f>_xll.qlMidSafe($Q36,$R36)</f>
@@ -20798,15 +20798,15 @@
         <v>0</v>
       </c>
       <c r="D37" s="57" t="str">
-        <v>G8</v>
+        <v>J8</v>
       </c>
       <c r="E37" s="56" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MG8_Quote</v>
+        <v>HKDFUT3MJ8_Quote</v>
       </c>
       <c r="F37" s="55" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG8_Quote#0001</v>
+        <v>HKDFUT3MJ8_Quote#0001</v>
       </c>
       <c r="G37" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -20821,29 +20821,29 @@
         <v>0</v>
       </c>
       <c r="M37" s="95" t="str">
-        <v>G8</v>
+        <v>J8</v>
       </c>
       <c r="N37" s="159">
-        <v>43152</v>
+        <v>43208</v>
       </c>
       <c r="O37" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRG8</v>
+        <v>HIRJ8</v>
       </c>
       <c r="P37" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q37" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R37" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S37" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T37" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U37" s="90" t="e">
         <f>_xll.qlMidSafe($Q37,$R37)</f>
@@ -20875,15 +20875,15 @@
         <v>0</v>
       </c>
       <c r="D38" s="57" t="str">
-        <v>H8</v>
+        <v>K8</v>
       </c>
       <c r="E38" s="56" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MH8_Quote</v>
+        <v>HKDFUT3MK8_Quote</v>
       </c>
       <c r="F38" s="55" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH8_Quote#0001</v>
+        <v>HKDFUT3MK8_Quote#0001</v>
       </c>
       <c r="G38" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -20898,29 +20898,29 @@
         <v>0</v>
       </c>
       <c r="M38" s="95" t="str">
-        <v>H8</v>
+        <v>K8</v>
       </c>
       <c r="N38" s="159">
-        <v>43180</v>
+        <v>43236</v>
       </c>
       <c r="O38" s="95" t="str">
         <f t="shared" si="1"/>
-        <v>HIRH8</v>
+        <v>HIRK8</v>
       </c>
       <c r="P38" s="158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q38" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R38" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S38" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T38" s="95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U38" s="90" t="e">
         <f>_xll.qlMidSafe($Q38,$R38)</f>
@@ -20952,15 +20952,15 @@
         <v>0</v>
       </c>
       <c r="D39" s="57" t="str">
-        <v>J8</v>
+        <v>M8</v>
       </c>
       <c r="E39" s="56" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MJ8_Quote</v>
+        <v>HKDFUT3MM8_Quote</v>
       </c>
       <c r="F39" s="55" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ8_Quote#0001</v>
+        <v>HKDFUT3MM8_Quote#0001</v>
       </c>
       <c r="G39" s="286" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -20975,29 +20975,29 @@
         <v>0</v>
       </c>
       <c r="M39" s="86" t="str">
-        <v>J8</v>
+        <v>M8</v>
       </c>
       <c r="N39" s="152">
-        <v>43208</v>
+        <v>43271</v>
       </c>
       <c r="O39" s="86" t="str">
         <f t="shared" si="1"/>
-        <v>HIRJ8</v>
+        <v>HIRM8</v>
       </c>
       <c r="P39" s="151" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q39" s="86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R39" s="86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S39" s="86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T39" s="86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U39" s="131" t="e">
         <f>_xll.qlMidSafe($Q39,$R39)</f>
@@ -21113,7 +21113,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J1" s="147"/>
       <c r="K1" s="113"/>
@@ -21137,7 +21137,7 @@
       <c r="J2" s="111"/>
       <c r="K2" s="88"/>
       <c r="L2" s="110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M2" s="88"/>
       <c r="N2" s="88"/>
@@ -21177,7 +21177,7 @@
       <c r="U3" s="146"/>
       <c r="V3" s="107">
         <f>_xll.ohTrigger(V5:V15)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W3" s="84"/>
       <c r="X3" s="281"/>
@@ -21202,39 +21202,39 @@
         <v>ohObjectSave - Invalid parent path : C:\projects\quantlib\QuantLibXL\Data2\XML\HKD\HKD_010_Sw1M.xml</v>
       </c>
       <c r="H4" s="219" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J4" s="93"/>
       <c r="K4" s="145"/>
       <c r="L4" s="106" t="str">
         <f>_xll.RData(L5:L15,M4:P4,,ReutersRtMode,,M5)</f>
-        <v>Updated at 18:15:25</v>
+        <v>Paused at 11:12:44</v>
       </c>
       <c r="M4" s="142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N4" s="142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O4" s="142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P4" s="142" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R4" s="88"/>
       <c r="S4" s="104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T4" s="88"/>
       <c r="U4" s="215" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V4" s="187" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W4" s="84"/>
       <c r="X4" s="281"/>
@@ -21275,16 +21275,16 @@
         <v>HKDAM1H2M=PREA</v>
       </c>
       <c r="M5" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N5" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O5" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P5" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="186" t="e">
         <f>_xll.qlMidSafe($M5,$N5)</f>
@@ -21364,9 +21364,9 @@
       <c r="U6" s="156">
         <v>0.21000000000000002</v>
       </c>
-      <c r="V6" s="94">
+      <c r="V6" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E6,U6/100,ISERROR(F6))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W6" s="84"/>
       <c r="X6" s="281"/>
@@ -21406,16 +21406,16 @@
         <v>HKDAM1H4M=PREA</v>
       </c>
       <c r="M7" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N7" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O7" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P7" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="186" t="e">
         <f>_xll.qlMidSafe($M7,$N7)</f>
@@ -21471,16 +21471,16 @@
         <v>HKDAM1H5M=PREA</v>
       </c>
       <c r="M8" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N8" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O8" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P8" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="186" t="e">
         <f>_xll.qlMidSafe($M8,$N8)</f>
@@ -21559,9 +21559,9 @@
       <c r="U9" s="156">
         <v>0.25</v>
       </c>
-      <c r="V9" s="94">
+      <c r="V9" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E9,U9/100,ISERROR(F9))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W9" s="84"/>
       <c r="X9" s="281"/>
@@ -21601,16 +21601,16 @@
         <v>HKDAM1H7M=PREA</v>
       </c>
       <c r="M10" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N10" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O10" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P10" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="186" t="e">
         <f>_xll.qlMidSafe($M10,$N10)</f>
@@ -21666,16 +21666,16 @@
         <v>HKDAM1H8M=PREA</v>
       </c>
       <c r="M11" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N11" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O11" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P11" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="186" t="e">
         <f>_xll.qlMidSafe($M11,$N11)</f>
@@ -21754,9 +21754,9 @@
       <c r="U12" s="156">
         <v>0.29000000000000004</v>
       </c>
-      <c r="V12" s="94">
+      <c r="V12" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E12,U12/100,ISERROR(F12))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W12" s="84"/>
       <c r="X12" s="281"/>
@@ -21796,16 +21796,16 @@
         <v>HKDAM1H10M=PREA</v>
       </c>
       <c r="M13" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N13" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O13" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P13" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="186" t="e">
         <f>_xll.qlMidSafe($M13,$N13)</f>
@@ -21861,16 +21861,16 @@
         <v>HKDAM1H11M=PREA</v>
       </c>
       <c r="M14" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N14" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O14" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P14" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="186" t="e">
         <f>_xll.qlMidSafe($M14,$N14)</f>
@@ -21949,9 +21949,9 @@
       <c r="U15" s="149">
         <v>0.33</v>
       </c>
-      <c r="V15" s="85">
+      <c r="V15" s="85" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E15,U15/100,ISERROR(F15))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W15" s="84"/>
       <c r="X15" s="281"/>
@@ -22049,7 +22049,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J1" s="147"/>
       <c r="K1" s="113"/>
@@ -22073,7 +22073,7 @@
       <c r="J2" s="111"/>
       <c r="K2" s="88"/>
       <c r="L2" s="110" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M2" s="88"/>
       <c r="N2" s="88"/>
@@ -22113,7 +22113,7 @@
       <c r="U3" s="146"/>
       <c r="V3" s="107">
         <f>_xll.ohTrigger(V5:V32)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W3" s="84"/>
       <c r="X3" s="116"/>
@@ -22140,39 +22140,39 @@
         <v>ohObjectSave - Invalid parent path : C:\projects\quantlib\QuantLibXL\Data2\XML\HKD\HKD_010_SwQM3H.xml</v>
       </c>
       <c r="H4" s="219" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J4" s="93"/>
       <c r="K4" s="145"/>
       <c r="L4" s="106" t="str">
         <f>_xll.RData(L5:L35,M4:P4,,ReutersRtMode,,M5)</f>
-        <v>Updated at 18:15:25</v>
+        <v>Paused at 11:12:44</v>
       </c>
       <c r="M4" s="142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N4" s="142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O4" s="142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P4" s="142" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R4" s="88"/>
       <c r="S4" s="104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T4" s="88"/>
       <c r="U4" s="215" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V4" s="187" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W4" s="84"/>
       <c r="X4" s="116"/>
@@ -22237,9 +22237,9 @@
         <f t="array" ref="U5:U35">QuoteLive</f>
         <v>0.4</v>
       </c>
-      <c r="V5" s="94">
+      <c r="V5" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E5,U5/100,ISERROR(F5))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W5" s="84"/>
       <c r="X5" s="116"/>
@@ -22302,9 +22302,9 @@
       <c r="U6" s="156">
         <v>0.44</v>
       </c>
-      <c r="V6" s="94">
+      <c r="V6" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E6,U6/100,ISERROR(F6))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W6" s="84"/>
       <c r="X6" s="116"/>
@@ -22367,9 +22367,9 @@
       <c r="U7" s="156">
         <v>0.48</v>
       </c>
-      <c r="V7" s="94">
+      <c r="V7" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E7,U7/100,ISERROR(F7))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W7" s="84"/>
       <c r="X7" s="116"/>
@@ -22409,16 +22409,16 @@
         <v>HKDQM3H15M=TRHK</v>
       </c>
       <c r="M8" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N8" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O8" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P8" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="90" t="e">
         <f>_xll.qlMidSafe($M8,$N8)</f>
@@ -22497,9 +22497,9 @@
       <c r="U9" s="156">
         <v>0.65</v>
       </c>
-      <c r="V9" s="94">
+      <c r="V9" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E9,U9/100,ISERROR(F9))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W9" s="84"/>
       <c r="X9" s="116"/>
@@ -22539,16 +22539,16 @@
         <v>HKDQM3H21M=TRHK</v>
       </c>
       <c r="M10" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N10" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O10" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P10" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="90" t="e">
         <f>_xll.qlMidSafe($M10,$N10)</f>
@@ -22627,9 +22627,9 @@
       <c r="U11" s="156">
         <v>0.83000000000000007</v>
       </c>
-      <c r="V11" s="94">
+      <c r="V11" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E11,U11/100,ISERROR(F11))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W11" s="84"/>
       <c r="X11" s="116"/>
@@ -22692,9 +22692,9 @@
       <c r="U12" s="156">
         <v>1.1400000000000001</v>
       </c>
-      <c r="V12" s="94">
+      <c r="V12" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E12,U12/100,ISERROR(F12))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W12" s="84"/>
       <c r="X12" s="116"/>
@@ -22757,9 +22757,9 @@
       <c r="U13" s="156">
         <v>1.38</v>
       </c>
-      <c r="V13" s="94">
+      <c r="V13" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E13,U13/100,ISERROR(F13))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W13" s="84"/>
       <c r="X13" s="116"/>
@@ -22822,9 +22822,9 @@
       <c r="U14" s="156">
         <v>1.56</v>
       </c>
-      <c r="V14" s="94">
+      <c r="V14" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E14,U14/100,ISERROR(F14))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W14" s="84"/>
       <c r="X14" s="116"/>
@@ -22864,16 +22864,16 @@
         <v>HKDQM3H6Y=TRHK</v>
       </c>
       <c r="M15" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N15" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O15" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P15" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q15" s="90" t="e">
         <f>_xll.qlMidSafe($M15,$N15)</f>
@@ -22952,9 +22952,9 @@
       <c r="U16" s="156">
         <v>1.82</v>
       </c>
-      <c r="V16" s="94">
+      <c r="V16" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E16,U16/100,ISERROR(F16))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W16" s="84"/>
       <c r="X16" s="116"/>
@@ -22994,16 +22994,16 @@
         <v>HKDQM3H8Y=TRHK</v>
       </c>
       <c r="M17" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N17" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O17" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P17" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="90" t="e">
         <f>_xll.qlMidSafe($M17,$N17)</f>
@@ -23059,16 +23059,16 @@
         <v>HKDQM3H9Y=TRHK</v>
       </c>
       <c r="M18" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N18" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O18" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P18" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q18" s="90" t="e">
         <f>_xll.qlMidSafe($M18,$N18)</f>
@@ -23147,9 +23147,9 @@
       <c r="U19" s="156">
         <v>2.06</v>
       </c>
-      <c r="V19" s="94">
+      <c r="V19" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E19,U19/100,ISERROR(F19))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W19" s="84"/>
       <c r="X19" s="116"/>
@@ -23189,16 +23189,16 @@
         <v>HKDQM3H11Y=TRHK</v>
       </c>
       <c r="M20" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N20" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O20" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P20" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q20" s="90" t="e">
         <f>_xll.qlMidSafe($M20,$N20)</f>
@@ -23277,9 +23277,9 @@
       <c r="U21" s="156">
         <v>2.1399999999999997</v>
       </c>
-      <c r="V21" s="94">
+      <c r="V21" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E21,U21/100,ISERROR(F21))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W21" s="84"/>
       <c r="X21" s="116"/>
@@ -23319,16 +23319,16 @@
         <v>HKDQM3H13Y=TRHK</v>
       </c>
       <c r="M22" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N22" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O22" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P22" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q22" s="90" t="e">
         <f>_xll.qlMidSafe($M22,$N22)</f>
@@ -23384,16 +23384,16 @@
         <v>HKDQM3H14Y=TRHK</v>
       </c>
       <c r="M23" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N23" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O23" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P23" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q23" s="90" t="e">
         <f>_xll.qlMidSafe($M23,$N23)</f>
@@ -23472,9 +23472,9 @@
       <c r="U24" s="156">
         <v>2.2199999999999998</v>
       </c>
-      <c r="V24" s="94">
+      <c r="V24" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E24,U24/100,ISERROR(F24))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W24" s="84"/>
       <c r="X24" s="116"/>
@@ -23514,16 +23514,16 @@
         <v>HKDQM3H16Y=TRHK</v>
       </c>
       <c r="M25" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N25" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O25" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P25" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q25" s="90" t="e">
         <f>_xll.qlMidSafe($M25,$N25)</f>
@@ -23579,16 +23579,16 @@
         <v>HKDQM3H17Y=TRHK</v>
       </c>
       <c r="M26" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N26" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O26" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P26" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q26" s="90" t="e">
         <f>_xll.qlMidSafe($M26,$N26)</f>
@@ -23644,16 +23644,16 @@
         <v>HKDQM3H18Y=TRHK</v>
       </c>
       <c r="M27" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N27" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O27" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P27" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q27" s="90" t="e">
         <f>_xll.qlMidSafe($M27,$N27)</f>
@@ -23709,16 +23709,16 @@
         <v>HKDQM3H19Y=TRHK</v>
       </c>
       <c r="M28" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N28" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O28" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P28" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="90" t="e">
         <f>_xll.qlMidSafe($M28,$N28)</f>
@@ -23797,9 +23797,9 @@
       <c r="U29" s="156">
         <v>2.35</v>
       </c>
-      <c r="V29" s="94">
+      <c r="V29" s="94" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E29,U29/100,ISERROR(F29))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="W29" s="84"/>
       <c r="X29" s="116"/>
@@ -23839,16 +23839,16 @@
         <v>HKDQM3H25Y=TRHK</v>
       </c>
       <c r="M30" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N30" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O30" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P30" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="90" t="e">
         <f>_xll.qlMidSafe($M30,$N30)</f>
@@ -23904,16 +23904,16 @@
         <v>HKDQM3H30Y=TRHK</v>
       </c>
       <c r="M31" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N31" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O31" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P31" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q31" s="90" t="e">
         <f>_xll.qlMidSafe($M31,$N31)</f>
@@ -23969,16 +23969,16 @@
         <v>HKDQM3H35Y=TRHK</v>
       </c>
       <c r="M32" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N32" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O32" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P32" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q32" s="90" t="e">
         <f>_xll.qlMidSafe($M32,$N32)</f>
@@ -24034,16 +24034,16 @@
         <v>HKDQM3H40Y=TRHK</v>
       </c>
       <c r="M33" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N33" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O33" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P33" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q33" s="90" t="e">
         <f>_xll.qlMidSafe($M33,$N33)</f>
@@ -24099,16 +24099,16 @@
         <v>HKDQM3H50Y=TRHK</v>
       </c>
       <c r="M34" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N34" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O34" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P34" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q34" s="90" t="e">
         <f>_xll.qlMidSafe($M34,$N34)</f>
@@ -24164,16 +24164,16 @@
         <v>HKDQM3H60Y=TRHK</v>
       </c>
       <c r="M35" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N35" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O35" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P35" s="127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q35" s="90" t="e">
         <f>_xll.qlMidSafe($M35,$N35)</f>
